--- a/assets/pruebaDeEscritorio.xlsx
+++ b/assets/pruebaDeEscritorio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="225">
   <si>
     <t>Estado inicial:</t>
   </si>
@@ -531,9 +531,6 @@
     <t>Salida: sale a la siguiente entrada</t>
   </si>
   <si>
-    <t>Salida: ¡Carga Exitosa! Se han cargado $ 100,00 ARS al jugador a s d.</t>
-  </si>
-  <si>
     <t>Regreso al submenu Cargar/Rretirar credito</t>
   </si>
   <si>
@@ -558,9 +555,6 @@
     <t>Selección de opción:</t>
   </si>
   <si>
-    <t>3 (Volver al Menú Principal)</t>
-  </si>
-  <si>
     <t>Paso 8</t>
   </si>
   <si>
@@ -573,18 +567,9 @@
     <t>Paso 9</t>
   </si>
   <si>
-    <t>Ingrese el ID de usuario a eliminar: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¡Usuario con ID 1 eliminado con exito!    </t>
-  </si>
-  <si>
     <t>Paso 10</t>
   </si>
   <si>
-    <t>4 (Volver al menu principal)</t>
-  </si>
-  <si>
     <t>Paso 11</t>
   </si>
   <si>
@@ -616,9 +601,6 @@
   </si>
   <si>
     <t>Entrada:Ingrese el ID del usuario: 1</t>
-  </si>
-  <si>
-    <t>Salida: Bienvenido Saul al juego de Tragamoneda Animal</t>
   </si>
   <si>
     <t xml:space="preserve"> Estas listo para comenzar el juego?</t>
@@ -816,6 +798,42 @@
 [1] Si
 [2] No
 Desea seguir jugando?: 2</t>
+  </si>
+  <si>
+    <t>Salida: ¡Carga Exitosa! Se han cargado $ 100,00 ARS al jugador juan.</t>
+  </si>
+  <si>
+    <t>3 (Volver)</t>
+  </si>
+  <si>
+    <t>Regresa a menu de usuario</t>
+  </si>
+  <si>
+    <t>Entrada: Ingrese el ID de usuario a eliminar: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salida: ¡Usuario con ID 1 eliminado con exito!    </t>
+  </si>
+  <si>
+    <t>Regresa al menu principal</t>
+  </si>
+  <si>
+    <t>4 (Volver al menu anterior)</t>
+  </si>
+  <si>
+    <t>Ingresa a menu de juegos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al juego </t>
+  </si>
+  <si>
+    <t>Salida: Bienvenido juan al juego de Tragamoneda Animal</t>
+  </si>
+  <si>
+    <t>Sale del programa (casino)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el ID del usuario al que desea cargar creditos: </t>
   </si>
 </sst>
 </file>
@@ -1114,11 +1132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1148,9 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1186,6 +1200,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D201"/>
+  <dimension ref="B1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,57 +1528,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1564,38 +1588,38 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -1603,136 +1627,136 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="16" t="s">
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="45">
         <v>100000</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="11" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1742,1152 +1766,1169 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="11"/>
+      <c r="C46" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8" t="s">
+      <c r="B50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="45">
         <v>100100</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="14" t="s">
+      <c r="B57" s="44"/>
+      <c r="C57" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="8" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="8" t="s">
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="11" t="s">
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8" t="s">
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8" t="s">
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="11"/>
+      <c r="C65" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" s="11"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="14" t="s">
+      <c r="D96" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="44"/>
+      <c r="C108" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="45">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="44"/>
+      <c r="C109" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="9" t="s">
+      <c r="D114" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C119" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="44"/>
+      <c r="C133" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="45">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="44"/>
+      <c r="C134" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="44"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="4" t="s">
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="5" t="s">
+    </row>
+    <row r="145" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D145" s="10"/>
+    </row>
+    <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="8"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="44"/>
+      <c r="C158" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" s="45">
+        <v>99700</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="44"/>
+      <c r="C159" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="44"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="44"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D169" s="10"/>
+    </row>
+    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="8"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D183" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="44"/>
+      <c r="C184" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" s="45">
+        <v>98700</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="44"/>
+      <c r="C185" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="44"/>
+      <c r="C186" s="44"/>
+      <c r="D186" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="44"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="46"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D195" s="10"/>
+    </row>
+    <row r="196" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8" t="s">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8" t="s">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="9" t="s">
+    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="11"/>
-    </row>
-    <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="6"/>
-      <c r="C107" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="22">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="6"/>
-      <c r="C108" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="6"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="9"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="6"/>
-      <c r="C132" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D132" s="22">
-        <v>99900</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-      <c r="C133" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D144" s="11"/>
-    </row>
-    <row r="145" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="9"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="6"/>
-      <c r="C157" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D157" s="22">
-        <v>99700</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
-      <c r="C158" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="6"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="6"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D168" s="11"/>
-    </row>
-    <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="6"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="6"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="6"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="6"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="6"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B177" s="6"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="6"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="6"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="16" t="s">
+      <c r="C200" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B202" s="1" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="9"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="182" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="6"/>
-      <c r="C183" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183" s="22">
-        <v>98700</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="6"/>
-      <c r="C184" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="6"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="6"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="6"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="6"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D194" s="11"/>
-    </row>
-    <row r="195" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="6"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="6"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D199" s="11"/>
-    </row>
-    <row r="201" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B201" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2900,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F179"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,12 +2951,12 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2926,1768 +2967,1768 @@
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>-9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>8</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>-1</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="23" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="24" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <v>9</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="8" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="32" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="24" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="8" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="8" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="32" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="24" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="31" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="8" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="8" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="32" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="24" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="8" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="23" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="24" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="8" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="32" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="24" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="33" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="24" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="8" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="8" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="32" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="24" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="8" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="8" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="32" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="24" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="8" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="8" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="23" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="24" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="31" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="8" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="8" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="32" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="24" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="8" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="8" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="32" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="24" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="29" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="33" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="24" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="29" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="33" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="24" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="11" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="8" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="33" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="24" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="8" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="33" t="s">
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="24" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="31" t="s">
+      <c r="E70" s="23"/>
+      <c r="F70" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="8" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="33" t="s">
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="24" t="s">
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="31" t="s">
+      <c r="E73" s="23"/>
+      <c r="F73" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="8" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="33" t="s">
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="24" t="s">
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="25" t="s">
+      <c r="E76" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="F76" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="8" t="s">
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="33" t="s">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="24" t="s">
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="23">
         <v>0</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="8" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="33" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="24" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F82" s="29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="8" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="8" t="s">
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="8" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="24" t="s">
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86" s="23">
         <v>-20</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="8" t="s">
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="33" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="24" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="25">
+      <c r="E89" s="23">
         <v>30.58</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="8" t="s">
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="8" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="33" t="s">
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="24" t="s">
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E93" s="25">
+      <c r="E93" s="23">
         <v>0.35</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="8" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="8" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="33" t="s">
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="24" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="8" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="11" t="s">
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="13"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="18">
         <v>90</v>
       </c>
-      <c r="F103" s="38" t="s">
+      <c r="F103" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="39" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="37" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="39" t="s">
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="40" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="24" t="s">
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E107" s="25" t="s">
+      <c r="E107" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="8" t="s">
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="33" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F110" s="31" t="s">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="23"/>
+      <c r="F113" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="8" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="33" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="23">
+        <v>0</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="31" t="s">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" s="23">
+        <v>-9</v>
+      </c>
+      <c r="F120" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="8" t="s">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="8" t="s">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="6"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E116" s="25">
-        <v>0</v>
-      </c>
-      <c r="F116" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="6"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="39" t="s">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="40" t="s">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F126" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="23">
+        <v>4</v>
+      </c>
+      <c r="F130" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E120" s="25">
-        <v>-9</v>
-      </c>
-      <c r="F120" s="31" t="s">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" s="23"/>
+      <c r="F135" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="8" t="s">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="33" t="s">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E123" s="25">
-        <v>3.6</v>
-      </c>
-      <c r="F123" s="31" t="s">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="8" t="s">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F126" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="25">
-        <v>4</v>
-      </c>
-      <c r="F130" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E135" s="25"/>
-      <c r="F135" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F138" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="140" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="9"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="11" t="s">
+      <c r="B140" s="8"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="B142" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="30" t="s">
+      <c r="D142" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="18">
         <v>90</v>
       </c>
-      <c r="F142" s="38" t="s">
+      <c r="F142" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="39" t="s">
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="37" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="39" t="s">
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="40" t="s">
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="24" t="s">
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E146" s="25" t="s">
+      <c r="E146" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F146" s="31" t="s">
+      <c r="F146" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="8" t="s">
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="33" t="s">
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="24" t="s">
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E149" s="25" t="s">
+      <c r="E149" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F149" s="31" t="s">
+      <c r="F149" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="8" t="s">
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="33" t="s">
+      <c r="B151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="24" t="s">
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E152" s="25"/>
-      <c r="F152" s="31" t="s">
+      <c r="E152" s="23"/>
+      <c r="F152" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="8" t="s">
+      <c r="B153" s="5"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="8" t="s">
+      <c r="B154" s="5"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="24" t="s">
+      <c r="B155" s="5"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E155" s="25">
+      <c r="E155" s="23">
         <v>0</v>
       </c>
-      <c r="F155" s="41" t="s">
+      <c r="F155" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="39" t="s">
+      <c r="B156" s="5"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="6"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="39" t="s">
+      <c r="B157" s="5"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="40" t="s">
+      <c r="B158" s="5"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="24" t="s">
+      <c r="B159" s="5"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E159" s="25">
+      <c r="E159" s="23">
         <v>-9</v>
       </c>
-      <c r="F159" s="31" t="s">
+      <c r="F159" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="6"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="8" t="s">
+      <c r="B160" s="5"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="33" t="s">
+      <c r="B161" s="5"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="6"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="24" t="s">
+      <c r="B162" s="5"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E162" s="25">
+      <c r="E162" s="23">
         <v>3.6</v>
       </c>
-      <c r="F162" s="31" t="s">
+      <c r="F162" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="6"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="8" t="s">
+      <c r="B163" s="5"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="6"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="33" t="s">
+      <c r="B164" s="5"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="24" t="s">
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E165" s="25" t="s">
+      <c r="E165" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F165" s="41" t="s">
+      <c r="F165" s="39" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="26" t="s">
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E166" s="20"/>
-      <c r="F166" s="39" t="s">
+      <c r="E166" s="19"/>
+      <c r="F166" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="6"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="39" t="s">
+      <c r="B167" s="5"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="40" t="s">
+      <c r="B168" s="5"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="6"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="24" t="s">
+      <c r="B169" s="5"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E169" s="25">
+      <c r="E169" s="23">
         <v>4</v>
       </c>
-      <c r="F169" s="41" t="s">
+      <c r="F169" s="39" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="6"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="39" t="s">
+      <c r="B170" s="5"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="6"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="39" t="s">
+      <c r="B171" s="5"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="37" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="6"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="39" t="s">
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B173" s="6"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="40" t="s">
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="6"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="24" t="s">
+      <c r="B174" s="5"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E174" s="25"/>
-      <c r="F174" s="31" t="s">
+      <c r="E174" s="23"/>
+      <c r="F174" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="8" t="s">
+      <c r="B175" s="5"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B176" s="6"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="33" t="s">
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177" s="6"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="24" t="s">
+      <c r="B177" s="5"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E177" s="25" t="s">
+      <c r="E177" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F177" s="31" t="s">
+      <c r="F177" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B178" s="6"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="8" t="s">
+      <c r="B178" s="5"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="9"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="34"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="11" t="s">
+      <c r="B179" s="8"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="10" t="s">
         <v>121</v>
       </c>
     </row>

--- a/assets/pruebaDeEscritorio.xlsx
+++ b/assets/pruebaDeEscritorio.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="241" documentId="8_{EF3F9762-3C77-4725-92BE-8CFABF588FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF9DB7FF-1D30-46BF-89C3-3E3134B1D27B}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{EF3F9762-3C77-4725-92BE-8CFABF588FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD830FD1-FE7C-42E2-92A9-98568E259FC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba de escritorio" sheetId="1" r:id="rId1"/>
     <sheet name="Validaciones" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="313">
   <si>
     <t>Estado inicial:</t>
   </si>
@@ -44,15 +43,6 @@
   </si>
   <si>
     <t>Paso 1</t>
-  </si>
-  <si>
-    <t>1-Menu de Usuario</t>
-  </si>
-  <si>
-    <t>2-Juegos disponibles</t>
-  </si>
-  <si>
-    <t>3-Salir</t>
   </si>
   <si>
     <t>Entrada de usuario:</t>
@@ -408,9 +398,6 @@
     <t xml:space="preserve">Ingrese el ID del usuario al que desea cargar cr├®ditos: </t>
   </si>
   <si>
-    <t xml:space="preserve">solicitar ID del usuario: </t>
-  </si>
-  <si>
     <t>ID inexistente</t>
   </si>
   <si>
@@ -483,21 +470,6 @@
     <t>Paso 12</t>
   </si>
   <si>
-    <t>Mostrar opciones:</t>
-  </si>
-  <si>
-    <t>1-Tragamoneda Animal</t>
-  </si>
-  <si>
-    <t>3-BlackJack</t>
-  </si>
-  <si>
-    <t>4-Rueda de la fortuna</t>
-  </si>
-  <si>
-    <t>5-Volver</t>
-  </si>
-  <si>
     <t>Entrada: 5</t>
   </si>
   <si>
@@ -507,116 +479,40 @@
     <t>Paso 14</t>
   </si>
   <si>
-    <t>2-Tragamoneda Frutal</t>
-  </si>
-  <si>
     <t>Paso 16</t>
   </si>
   <si>
-    <t>Paso 17</t>
-  </si>
-  <si>
-    <t>Salida: Mano de Maquina (15):
-┌───┐┌───┐
-│ 10││  5│
-│ ♥ ││ ♦ │
-│   ││   │
-└───┘└───┘
-Mano de sdfsdg (20):
-┌───┐┌───┐
-│  A││  9│
-│ ♠ ││ ♣ │
-│   ││   │
-└───┘└───┘
-Mano de Maquina (21):
-┌───┐┌───┐┌───┐
-│ 10││  5││  6│
-│ ♥ ││ ♦ ││ ♦ │
-│   ││   ││   │
-└───┘└───┘└───┘
-Gana la maquina
-Presione cualquier tecla para continuar...</t>
-  </si>
-  <si>
-    <t>Salida: Créditos: $ 99.700,00 ARS
-[1] Apostar
-[2] Salir del Juego
-Opcion: 2</t>
-  </si>
-  <si>
     <t>Retorno al Submenu Juegos</t>
   </si>
   <si>
     <t>Paso 18</t>
   </si>
   <si>
-    <t>4 (Rueda de la fortuna)</t>
-  </si>
-  <si>
     <t>Paso 19</t>
   </si>
   <si>
-    <t>Salida: Bienvenido Juan a la Rueda de la Fortuna</t>
-  </si>
-  <si>
-    <t>Tirada: $1000</t>
-  </si>
-  <si>
-    <t>Creditos actuales: $ 99.700,00 ARS</t>
-  </si>
-  <si>
-    <t>[1] Si</t>
-  </si>
-  <si>
-    <t>[2] No</t>
-  </si>
-  <si>
-    <t>5 (Volver)</t>
-  </si>
-  <si>
     <t>Presione una tecla para continuar</t>
   </si>
   <si>
     <t>Salida: Gracias por jugar. ¡Hasta la proxima!</t>
   </si>
   <si>
-    <t>Salida: Retorno al submenu Juegos</t>
-  </si>
-  <si>
     <t>Paso 20</t>
   </si>
   <si>
     <t>Paso 21</t>
   </si>
   <si>
-    <t>3 (Salir)</t>
-  </si>
-  <si>
     <t>FIN PRUEBA DE ESCRITORIO</t>
   </si>
   <si>
     <t>PRUEBA DE ESCRITORIO</t>
   </si>
   <si>
-    <t>Desea hacer un tiro?: 1</t>
-  </si>
-  <si>
-    <t>Salida:  Girando la rueda...
-Resultado: ¡Perdiste!
-Mejor suerte la proxima vez.
-Creditos actuales: $ 98.700,00 ARS
-[1] Si
-[2] No
-Desea seguir jugando?: 2</t>
-  </si>
-  <si>
     <t>Salida: ¡Carga Exitosa! Se han cargado $ 100,00 ARS al jugador juan.</t>
   </si>
   <si>
     <t>Salida: Bienvenido juan al juego de Tragamoneda Animal</t>
-  </si>
-  <si>
-    <t>Sale del programa (casino)</t>
   </si>
   <si>
     <t xml:space="preserve">Ingrese el ID del usuario al que desea cargar creditos: </t>
@@ -1548,21 +1444,6 @@
     <t xml:space="preserve">                                              b)</t>
   </si>
   <si>
-    <t>1- Tragamoneda Animal</t>
-  </si>
-  <si>
-    <t>2- Tragamoneda Frutal</t>
-  </si>
-  <si>
-    <t>3- BlackJack</t>
-  </si>
-  <si>
-    <t>4- Rueda de la fortuna</t>
-  </si>
-  <si>
-    <t>5- Volver</t>
-  </si>
-  <si>
     <t>Solicita la apuesta al usuario (minimo: 150)</t>
   </si>
   <si>
@@ -1575,50 +1456,203 @@
     <t xml:space="preserve">                                              d)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Mano de Maquina::
-┌───┐┌───┐
-│ 10││   │
-│ ♥ ││ ? │
-│   ││   │
-└───┘└───┘
-Mano de sdfsdg (20):
-┌───┐┌───┐
-│  A││  9│
-│ ♠ ││ ♣ │
-│   ││   │
-└───┘└───┘
-[1] Pedir
-[2] Plantarse
-[3] Rendirse
-[4] Doblar
-Elije: 2</t>
-  </si>
-  <si>
-    <t>Mano de Maquina:</t>
-  </si>
-  <si>
     <t>Comienza el Juego de BlackJack (Salidas)</t>
   </si>
   <si>
-    <t>┌───┐                  ┌───┐
-│  A   │                  │        │
-│ ♣    │                  │ ?    │
-│        │                  │        │
-└───┘                  └───┘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mano de Juan: </t>
+    <t xml:space="preserve">                                              e)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Apostar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Salir del Juego</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Pedir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Plantarse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rendirse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Doblar</t>
+    </r>
   </si>
   <si>
     <t>┌───┐                  ┌ ─ ─ ─┐
-│  9    │                  │   12   │
-│ ♦    │                  │ ♦      │
+│  A   │                  │   9      │
+│ ♠    │                  │   ♣     │
 │        │                  │           │
 └───┘                  └ ─ ─ ─┘</t>
   </si>
   <si>
-    <t xml:space="preserve">                                              e)</t>
+    <t>┌─ ─ ─┐                   ┌───┐
+│  10    │                   │        │
+│ ♥      │                   │   ?   │
+│          │                   │        │
+└─ ─ ─┘                   └───┘</t>
+  </si>
+  <si>
+    <t>Salida: Mano de máquina: (15)</t>
+  </si>
+  <si>
+    <t>┌─ ─ ─┐                   ┌───┐
+│  10    │                   │  5   │
+│ ♥      │                   │  ♦  │
+│          │                   │        │
+└─ ─ ─┘                   └───┘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salida: Mano de Juan: (20) </t>
+  </si>
+  <si>
+    <t>┌─ ─ ─┐                   ┌───┐                ┌───┐    
+│  10    │                   │  5   │                │  6   │
+│ ♥      │                   │  ♦  │                │  ♦  │
+│          │                   │        │                │        │
+└─ ─ ─┘                   └───┘                └───┘</t>
+  </si>
+  <si>
+    <t>Salida: Mano de máquina: (21)</t>
+  </si>
+  <si>
+    <t>Gana la máquina</t>
+  </si>
+  <si>
+    <t>Salida: Mano de Maquina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              f)</t>
+  </si>
+  <si>
+    <t>Salida: Créditos: $ 99.700,00 ARS</t>
+  </si>
+  <si>
+    <t>Mostrar Creditos al terminar el juego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                             g)</t>
   </si>
   <si>
     <r>
@@ -1630,6 +1664,188 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Apostar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Entrada:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Plantarse)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entrada: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entrada: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entrada: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Salir del Juego)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ir al juego de la Rueda de la Fortuna)</t>
+    </r>
+  </si>
+  <si>
+    <t>Proceso para jugar a la Rueda de la Fortuna</t>
+  </si>
+  <si>
+    <t>Salida: Bienvenido juan al juego de la Rueda de la Fortuna</t>
+  </si>
+  <si>
+    <t>Se muestran las instrucciones para jugar a la Rueda de la Fortuna</t>
+  </si>
+  <si>
+    <t>Se muestran los creditos que tiene actualmente el usuario (99.700)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+  </si>
+  <si>
+    <t>Se muestran los premios (listado 1-12)</t>
+  </si>
+  <si>
+    <t>Mostrar opciones  (1- Para girar la rueda , 2- Para salir)</t>
+  </si>
+  <si>
+    <t>Salida: Girando la rueda…</t>
+  </si>
+  <si>
+    <t>Salida: Resultado: ¡Perdiste!</t>
+  </si>
+  <si>
+    <t>Salida: Mejor suerte la próxima vez.</t>
+  </si>
+  <si>
+    <t>Se muestra el resultado</t>
+  </si>
+  <si>
+    <t>Pregunta al usuario si desea seguir jugando o no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salida: Desea seguir jugando: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1-</t>
     </r>
     <r>
@@ -1640,7 +1856,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Apostar</t>
+      <t xml:space="preserve"> Si</t>
     </r>
   </si>
   <si>
@@ -1663,8 +1879,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Salir del Juego</t>
-    </r>
+      <t xml:space="preserve"> No</t>
+    </r>
+  </si>
+  <si>
+    <t>Se muestra el precio para la tirada de la ruleta: 1000</t>
+  </si>
+  <si>
+    <t>Salida: Retorno al Submenu Juegos</t>
+  </si>
+  <si>
+    <t>Paso 22</t>
   </si>
   <si>
     <r>
@@ -1676,6 +1901,213 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tragamoneda Animal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tragamoneda Frutal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BlackJack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Rueda de la fortuna</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Volver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- BlackJack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tragamoneda Frutal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tragamoneda Animal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1686,7 +2118,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- Pedir</t>
+      <t>- Tragamoneda Animal</t>
     </r>
   </si>
   <si>
@@ -1699,6 +2131,140 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">4- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rueda de la fortuna</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BlackJack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Tragamoneda Frutal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rueda de la fortuna</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ir al Menu principal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entrada: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Menu Principal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2-</t>
     </r>
     <r>
@@ -1709,7 +2275,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Plantarse</t>
+      <t xml:space="preserve"> Juegos disponibles</t>
     </r>
   </si>
   <si>
@@ -1722,41 +2288,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Rendirse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Doblar</t>
-    </r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sale del programa (casino)</t>
+    </r>
+  </si>
+  <si>
+    <t>Paso 23</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2242,48 +2788,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2298,6 +2802,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2314,6 +2870,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2603,10 +3163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,14 +3176,14 @@
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="67.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="67.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" customWidth="1"/>
     <col min="8" max="8" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2632,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2644,15 +3204,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41"/>
-      <c r="C5" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="75"/>
+      <c r="C5" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="78"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
@@ -2692,158 +3252,158 @@
         <v>8</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="71"/>
+        <v>147</v>
+      </c>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="47"/>
       <c r="D13" s="4" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="47"/>
       <c r="D14" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47"/>
       <c r="D15" s="6" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="48"/>
       <c r="C16" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="47"/>
       <c r="D20" s="4" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="47"/>
       <c r="D21" s="6" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="47"/>
       <c r="D22" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="47"/>
       <c r="D23" s="6" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="48"/>
       <c r="C24" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="71"/>
+        <v>139</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="74"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="50" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="51" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="49" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="49"/>
       <c r="C31" s="5"/>
       <c r="D31" s="53" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="49"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="13" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="41"/>
       <c r="C37" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="42">
         <v>100000</v>
@@ -2855,14 +3415,14 @@
         <v>2</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
       <c r="D39" s="35" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -2881,170 +3441,170 @@
     </row>
     <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D44" s="74"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="47"/>
       <c r="D45" s="4" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="47"/>
       <c r="D46" s="6" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="47"/>
       <c r="D47" s="6" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="47"/>
       <c r="D48" s="6" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="48"/>
       <c r="C49" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C52" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D52" s="74"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="47"/>
       <c r="D53" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="47"/>
       <c r="D54" s="6" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="47"/>
       <c r="D55" s="6" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="48"/>
       <c r="C56" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="71"/>
+        <v>163</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="74"/>
     </row>
     <row r="60" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="72"/>
+        <v>179</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="80"/>
     </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="61"/>
       <c r="D61" s="62" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="66"/>
+        <v>180</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="71"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="47"/>
       <c r="D63" s="62" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="47"/>
       <c r="D64" s="53" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="47"/>
       <c r="D65" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="48"/>
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41"/>
       <c r="C70" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D70" s="42">
         <v>100100</v>
@@ -3056,14 +3616,14 @@
         <v>2</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
       <c r="D72" s="35" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3082,120 +3642,120 @@
     </row>
     <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C77" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D77" s="74"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="47"/>
       <c r="D78" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="47"/>
       <c r="D79" s="6" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="47"/>
       <c r="D80" s="6" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="48"/>
       <c r="C81" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="C84" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D84" s="71"/>
+        <v>173</v>
+      </c>
+      <c r="C84" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="74"/>
     </row>
     <row r="85" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" s="72"/>
+        <v>179</v>
+      </c>
+      <c r="C85" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="80"/>
     </row>
     <row r="86" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="61"/>
       <c r="D86" s="62" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="C87" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="66"/>
+        <v>180</v>
+      </c>
+      <c r="C87" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="71"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="47"/>
       <c r="D88" s="62" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="47"/>
       <c r="D89" s="53" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="47"/>
       <c r="D90" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="48"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="41"/>
       <c r="C94" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D94" s="42">
         <v>100000</v>
@@ -3207,14 +3767,14 @@
         <v>2</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
       <c r="D96" s="35" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
@@ -3233,483 +3793,483 @@
     </row>
     <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C102" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D102" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D102" s="74"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
       <c r="D103" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
       <c r="D104" s="6" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="47"/>
       <c r="D105" s="6" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="48"/>
       <c r="C106" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C109" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D109" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D109" s="74"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="47"/>
       <c r="D110" s="4" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="47"/>
       <c r="D111" s="6" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="47"/>
       <c r="D112" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="47"/>
       <c r="D113" s="6" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="48"/>
       <c r="C114" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="D117" s="71"/>
+        <v>185</v>
+      </c>
+      <c r="C117" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="74"/>
     </row>
     <row r="118" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D118" s="72"/>
+        <v>189</v>
+      </c>
+      <c r="C118" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="80"/>
     </row>
     <row r="119" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="63"/>
       <c r="D119" s="62" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="63"/>
       <c r="C120" s="5"/>
       <c r="D120" s="53" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="47" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="48" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="9" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C125" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D125" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D125" s="74"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="47"/>
       <c r="D126" s="4" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="47"/>
       <c r="D127" s="6" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="47"/>
       <c r="D128" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="47"/>
       <c r="D129" s="6" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="48"/>
       <c r="C130" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="55" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C133" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D133" s="71"/>
+        <v>147</v>
+      </c>
+      <c r="D133" s="74"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="47"/>
       <c r="D134" s="4" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="47"/>
       <c r="D135" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="47"/>
       <c r="D136" s="6" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="48"/>
       <c r="C137" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="55" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C140" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D140" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D140" s="74"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="47"/>
       <c r="D141" s="4" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="47"/>
       <c r="D142" s="6" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="47"/>
       <c r="D143" s="6" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="47"/>
       <c r="D144" s="6" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="47"/>
       <c r="D145" s="6" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="48"/>
       <c r="C146" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="C151" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D151" s="71"/>
+        <v>227</v>
+      </c>
+      <c r="C151" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="D151" s="74"/>
     </row>
     <row r="152" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C152" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D152" s="66"/>
+        <v>179</v>
+      </c>
+      <c r="C152" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" s="71"/>
     </row>
     <row r="153" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="63"/>
       <c r="D153" s="62" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="63"/>
       <c r="C154" s="5"/>
       <c r="D154" s="53" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="47" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="6" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="48" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="9" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C157" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="D157" s="66"/>
+        <v>198</v>
+      </c>
+      <c r="C157" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" s="71"/>
     </row>
     <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="48"/>
       <c r="C158" s="7"/>
       <c r="D158" s="64" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="C159" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="D159" s="72"/>
+        <v>199</v>
+      </c>
+      <c r="C159" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D159" s="80"/>
     </row>
     <row r="160" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="48"/>
       <c r="C160" s="8"/>
       <c r="D160" s="64" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C161" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="D161" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="C161" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" s="71"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="47"/>
       <c r="D162" s="62" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="48"/>
       <c r="C163" s="8"/>
       <c r="D163" s="51" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C164" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="D164" s="66"/>
+        <v>206</v>
+      </c>
+      <c r="C164" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D164" s="71"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="47"/>
       <c r="D165" s="53" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="48"/>
       <c r="C166" s="8"/>
       <c r="D166" s="51" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E166" s="5"/>
     </row>
     <row r="167" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C167" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="D167" s="66"/>
+        <v>209</v>
+      </c>
+      <c r="C167" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D167" s="71"/>
       <c r="E167" s="5"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="47"/>
       <c r="D168" s="53" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="48"/>
       <c r="C169" s="8"/>
       <c r="D169" s="51" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="C170" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="D170" s="69"/>
+        <v>215</v>
+      </c>
+      <c r="C170" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" s="76"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="47"/>
       <c r="D171" s="62" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="47"/>
       <c r="D172" s="53" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="47"/>
       <c r="D173" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="48"/>
       <c r="C174" s="8"/>
       <c r="D174" s="9" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C176" s="39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D176" s="40" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="41"/>
       <c r="C177" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D177" s="42">
         <v>100100</v>
@@ -3747,55 +4307,55 @@
     </row>
     <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="55" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C184" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D184" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D184" s="74"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="47"/>
       <c r="D185" s="4" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="47"/>
       <c r="D186" s="6" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="47"/>
       <c r="D187" s="6" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="47"/>
       <c r="D188" s="6" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="47"/>
       <c r="D189" s="6" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="190" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B190" s="48"/>
       <c r="C190" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
@@ -3806,797 +4366,965 @@
     <row r="192" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="193" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="C193" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="D193" s="71"/>
+        <v>238</v>
+      </c>
+      <c r="C193" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="D193" s="74"/>
     </row>
     <row r="194" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C194" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D194" s="66"/>
+        <v>179</v>
+      </c>
+      <c r="C194" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D194" s="71"/>
     </row>
     <row r="195" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="63"/>
       <c r="D195" s="62" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="63"/>
       <c r="C196" s="5"/>
       <c r="D196" s="53" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="47" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="48" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="9" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C199" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="D199" s="66"/>
+        <v>198</v>
+      </c>
+      <c r="C199" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D199" s="71"/>
     </row>
     <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B200" s="48"/>
       <c r="C200" s="7"/>
       <c r="D200" s="64" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B201" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="C201" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="D201" s="72"/>
+        <v>199</v>
+      </c>
+      <c r="C201" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D201" s="80"/>
     </row>
     <row r="202" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="48"/>
       <c r="C202" s="8"/>
       <c r="D202" s="64" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B203" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C203" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="D203" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="C203" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D203" s="71"/>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="47"/>
       <c r="D204" s="62" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="48"/>
       <c r="C205" s="8"/>
       <c r="D205" s="51" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C206" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="D206" s="66"/>
+        <v>206</v>
+      </c>
+      <c r="C206" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D206" s="71"/>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="47"/>
       <c r="D207" s="53" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="48"/>
       <c r="C208" s="8"/>
       <c r="D208" s="51" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="209" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B209" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C209" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="D209" s="66"/>
+        <v>209</v>
+      </c>
+      <c r="C209" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D209" s="71"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="47"/>
       <c r="D210" s="53" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B211" s="48"/>
       <c r="C211" s="8"/>
       <c r="D211" s="51" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="D212" s="69"/>
+        <v>215</v>
+      </c>
+      <c r="C212" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="D212" s="76"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="47"/>
       <c r="D213" s="62" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="47"/>
       <c r="D214" s="53" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="47"/>
       <c r="D215" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="216" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="48"/>
       <c r="C216" s="8"/>
       <c r="D216" s="9" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="55" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C219" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D219" s="71"/>
+        <v>152</v>
+      </c>
+      <c r="D219" s="74"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="47"/>
       <c r="D220" s="4" t="s">
-        <v>128</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="47"/>
       <c r="D221" s="6" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="47"/>
       <c r="D222" s="6" t="s">
-        <v>129</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="47"/>
       <c r="D223" s="6" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
     </row>
     <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B224" s="47"/>
       <c r="D224" s="6" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
     </row>
     <row r="225" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="48"/>
       <c r="C225" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="76"/>
-      <c r="C227" s="76"/>
-      <c r="D227" s="76"/>
-    </row>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="228" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="78" t="s">
-        <v>137</v>
+      <c r="B228" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="C228" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="D228" s="71"/>
+        <v>239</v>
+      </c>
+      <c r="D228" s="74"/>
     </row>
     <row r="229" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B229" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="C229" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="D229" s="69"/>
+        <v>240</v>
+      </c>
+      <c r="C229" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D229" s="76"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="47"/>
       <c r="D230" s="62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="47"/>
       <c r="D231" s="53" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="47"/>
-      <c r="C232" s="79"/>
+      <c r="C232" s="16"/>
       <c r="D232" s="6" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="48"/>
-      <c r="C233" s="81"/>
+      <c r="C233" s="65"/>
       <c r="D233" s="9" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B234" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="C234" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="D234" s="66"/>
+        <v>243</v>
+      </c>
+      <c r="C234" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D234" s="71"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="47"/>
-      <c r="C235" s="79"/>
+      <c r="C235" s="16"/>
       <c r="D235" s="14" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="47"/>
-      <c r="C236" s="79"/>
-      <c r="D236" s="82" t="s">
-        <v>286</v>
+      <c r="C236" s="16"/>
+      <c r="D236" s="66" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="48"/>
       <c r="C237" s="18"/>
-      <c r="D237" s="84" t="s">
-        <v>120</v>
+      <c r="D237" s="68" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="238" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B238" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="C238" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="D238" s="69"/>
+        <v>245</v>
+      </c>
+      <c r="C238" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="D238" s="76"/>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="47"/>
-      <c r="C239" s="79"/>
-      <c r="D239" s="83" t="s">
-        <v>261</v>
+      <c r="C239" s="16"/>
+      <c r="D239" s="67" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B240" s="48"/>
       <c r="C240" s="18"/>
-      <c r="D240" s="85" t="s">
-        <v>276</v>
+      <c r="D240" s="69" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B241" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="C241" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D241" s="66"/>
+        <v>247</v>
+      </c>
+      <c r="C241" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D241" s="71"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="47"/>
       <c r="C242" s="49"/>
-      <c r="D242" s="6" t="s">
-        <v>279</v>
+      <c r="D242" s="53" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B243" s="47"/>
       <c r="C243" s="49"/>
       <c r="D243" s="14" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="47"/>
       <c r="C244" s="49"/>
-      <c r="D244" s="14" t="s">
-        <v>282</v>
+      <c r="D244" s="83" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B245" s="48"/>
-      <c r="C245" s="81"/>
+      <c r="C245" s="65"/>
       <c r="D245" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B246" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D246" s="71"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="47"/>
+      <c r="C247" s="49"/>
+      <c r="D247" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B248" s="63"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B249" s="63"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="47"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="47"/>
+      <c r="D251" s="81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="47"/>
+      <c r="D252" s="53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B253" s="47"/>
+      <c r="D253" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="47"/>
+      <c r="C254" s="82"/>
+      <c r="D254" s="83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="47"/>
+      <c r="C255" s="82"/>
+      <c r="D255" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="47"/>
+      <c r="C256" s="82"/>
+      <c r="D256" s="53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B257" s="47"/>
+      <c r="C257" s="82"/>
+      <c r="D257" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="47"/>
+      <c r="C258" s="82"/>
+      <c r="D258" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="48"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B260" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="C260" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="D260" s="80"/>
+    </row>
+    <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="48"/>
+      <c r="C261" s="82"/>
+      <c r="D261" s="51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B262" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C262" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D262" s="71"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="47"/>
+      <c r="C263" s="82"/>
+      <c r="D263" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="47"/>
+      <c r="C264" s="82"/>
+      <c r="D264" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="47"/>
+      <c r="C265" s="82"/>
+      <c r="D265" s="62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="48"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="82"/>
+      <c r="C267" s="82"/>
+      <c r="D267" s="85"/>
+    </row>
+    <row r="268" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="269" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="41"/>
+      <c r="C270" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" s="42">
+        <v>99700</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="41"/>
+      <c r="C271" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="41"/>
+      <c r="C272" s="41"/>
+      <c r="D272" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="41"/>
+      <c r="C273" s="41"/>
+      <c r="D273" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
+      <c r="D274" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C277" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D277" s="74"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="47"/>
+      <c r="D278" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" s="47"/>
+      <c r="D279" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" s="47"/>
+      <c r="D280" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" s="47"/>
+      <c r="D281" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="47"/>
+      <c r="D282" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="48"/>
+      <c r="C283" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+    </row>
+    <row r="285" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="82"/>
+      <c r="C285" s="82"/>
+      <c r="D285" s="82"/>
+    </row>
+    <row r="286" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C286" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="D286" s="74"/>
+    </row>
+    <row r="287" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B287" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C287" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D287" s="76"/>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="47"/>
+      <c r="D288" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="47"/>
+      <c r="D289" s="53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" s="47"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="47"/>
+      <c r="C291" s="49"/>
+      <c r="D291" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="48"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C293" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="D293" s="87"/>
+    </row>
+    <row r="294" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B294" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C294" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="D294" s="71"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="47"/>
+      <c r="D295" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="47"/>
+      <c r="C296" s="84"/>
+      <c r="D296" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B297" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C297" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="D297" s="80"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" s="47"/>
+      <c r="C298" s="84"/>
+      <c r="D298" s="53" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B246" s="77" t="s">
+    <row r="299" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="47"/>
+      <c r="C299" s="84"/>
+      <c r="D299" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="C246" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="D246" s="67"/>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="5"/>
-      <c r="C247" s="79"/>
-      <c r="D247" t="s">
+    </row>
+    <row r="300" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B300" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C300" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="D300" s="80"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" s="47"/>
+      <c r="D301" s="53" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B248" s="77"/>
-      <c r="C248" s="76"/>
-      <c r="D248" s="82" t="s">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" s="47"/>
+      <c r="D302" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B249" s="77"/>
-      <c r="D249" t="s">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" s="47"/>
+      <c r="D303" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="5"/>
-      <c r="D250" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="5"/>
-      <c r="D251" s="14"/>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="5"/>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B253" s="5"/>
-      <c r="D253" s="6"/>
-    </row>
-    <row r="254" spans="2:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="B254" s="5"/>
-      <c r="D254" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="B255" s="5"/>
-      <c r="D255" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="7"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="38" t="s">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" s="47"/>
+      <c r="D304" s="52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" s="47"/>
+      <c r="D305" s="83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" s="47"/>
+      <c r="D306" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="48"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308" s="3"/>
+    </row>
+    <row r="309" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="310" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="41"/>
+      <c r="C311" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C258" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="41"/>
-      <c r="C259" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D259" s="40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="41"/>
-      <c r="C260" s="38" t="s">
+      <c r="D311" s="42">
+        <v>98700</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312" s="41"/>
+      <c r="C312" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="42">
-        <v>99700</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="41"/>
-      <c r="C261" s="41"/>
-      <c r="D261" s="34" t="s">
+      <c r="D312" s="34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="41"/>
-      <c r="C262" s="41"/>
-      <c r="D262" s="35" t="s">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313" s="41"/>
+      <c r="C313" s="41"/>
+      <c r="D313" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="43"/>
-      <c r="C263" s="43"/>
-      <c r="D263" s="35" t="s">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314" s="41"/>
+      <c r="C314" s="41"/>
+      <c r="D314" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="44" t="s">
+    <row r="315" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="43"/>
+      <c r="C315" s="43"/>
+      <c r="D315" s="44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B266" s="5"/>
-      <c r="D266" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B267" s="5"/>
-      <c r="D267" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B268" s="5"/>
-      <c r="D268" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B269" s="5"/>
-      <c r="D269" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="270" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="271" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="9"/>
-    </row>
-    <row r="272" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B273" s="5"/>
-      <c r="D273" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B274" s="5"/>
-      <c r="D274" s="6" t="s">
+    <row r="317" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C318" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D318" s="74"/>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319" s="47"/>
+      <c r="D319" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="47"/>
+      <c r="D320" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321" s="47"/>
+      <c r="D321" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322" s="47"/>
+      <c r="D322" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="47"/>
+      <c r="D323" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="48"/>
+      <c r="C324" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="C327" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D327" s="74"/>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328" s="47"/>
+      <c r="D328" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B275" s="5"/>
-      <c r="D275" s="6" t="s">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329" s="47"/>
+      <c r="D329" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="47"/>
+      <c r="D330" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B276" s="5"/>
-      <c r="D276" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B277" s="5"/>
-      <c r="D277" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B278" s="5"/>
-      <c r="D278" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B279" s="5"/>
-      <c r="D279" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="280" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B280" s="5"/>
-      <c r="D280" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B281" s="5"/>
-      <c r="D281" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="282" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="7"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="283" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C284" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="41"/>
-      <c r="C285" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D285" s="40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="41"/>
-      <c r="C286" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D286" s="42">
-        <v>98700</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B287" s="41"/>
-      <c r="C287" s="41"/>
-      <c r="D287" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B288" s="41"/>
-      <c r="C288" s="41"/>
-      <c r="D288" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="43"/>
-      <c r="C289" s="43"/>
-      <c r="D289" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B292" s="5"/>
-      <c r="D292" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B293" s="5"/>
-      <c r="D293" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B294" s="5"/>
-      <c r="D294" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B295" s="5"/>
-      <c r="D295" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="296" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C296" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="297" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="9"/>
-    </row>
-    <row r="298" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B299" s="5"/>
-      <c r="D299" s="4" t="s">
+    <row r="331" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="48"/>
+      <c r="C331" s="54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B300" s="5"/>
-      <c r="D300" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="301" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="302" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="303" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B303" s="1" t="s">
-        <v>156</v>
+      <c r="D331" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B333" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C167:D167"/>
+  <mergeCells count="55">
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="C294:D294"/>
+    <mergeCell ref="C297:D297"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="C287:D287"/>
     <mergeCell ref="C203:D203"/>
     <mergeCell ref="C206:D206"/>
     <mergeCell ref="C209:D209"/>
@@ -4605,6 +5333,42 @@
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C199:D199"/>
     <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C238:D238"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4616,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F219"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221:F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,12 +5396,12 @@
   <sheetData>
     <row r="1" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4646,47 +5410,47 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="16">
         <v>-9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="9"/>
@@ -4694,50 +5458,50 @@
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="16">
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="16">
         <v>-1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="9"/>
@@ -4745,59 +5509,59 @@
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="D15" s="22"/>
       <c r="F15" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="D16" s="22"/>
       <c r="F16" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="D17" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" s="21">
         <v>9</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="D18" s="22"/>
       <c r="F18" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="D19" s="22"/>
       <c r="F19" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -4805,33 +5569,33 @@
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="D21" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="D22" s="22"/>
       <c r="F22" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="D23" s="22"/>
       <c r="F23" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -4839,31 +5603,31 @@
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="D25" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="D26" s="22"/>
       <c r="F26" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="D27" s="22"/>
       <c r="F27" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -4871,52 +5635,52 @@
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
       <c r="F28" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="D29" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="D30" s="22"/>
       <c r="F30" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="D31" s="22"/>
       <c r="F31" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="D32" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="D33" s="22"/>
       <c r="F33" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -4924,19 +5688,19 @@
       <c r="D34" s="23"/>
       <c r="E34" s="24"/>
       <c r="F34" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="D35" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -4944,33 +5708,33 @@
       <c r="D36" s="23"/>
       <c r="E36" s="24"/>
       <c r="F36" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="D37" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="D38" s="22"/>
       <c r="F38" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="D39" s="22"/>
       <c r="F39" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -4978,33 +5742,33 @@
       <c r="D40" s="23"/>
       <c r="E40" s="24"/>
       <c r="F40" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="D41" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="D42" s="22"/>
       <c r="F42" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="D43" s="22"/>
       <c r="F43" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -5012,64 +5776,64 @@
       <c r="D44" s="23"/>
       <c r="E44" s="24"/>
       <c r="F44" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="D45" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="D46" s="22"/>
       <c r="F46" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="D47" s="22"/>
       <c r="F47" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="D48" s="22"/>
       <c r="F48" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="D49" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="D50" s="22"/>
       <c r="F50" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="D51" s="22"/>
       <c r="F51" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -5077,33 +5841,33 @@
       <c r="D52" s="23"/>
       <c r="E52" s="24"/>
       <c r="F52" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="D53" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="D54" s="22"/>
       <c r="F54" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="D55" s="22"/>
       <c r="F55" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -5111,19 +5875,19 @@
       <c r="D56" s="23"/>
       <c r="E56" s="24"/>
       <c r="F56" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="D57" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -5131,19 +5895,19 @@
       <c r="D58" s="23"/>
       <c r="E58" s="24"/>
       <c r="F58" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="D59" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -5151,19 +5915,19 @@
       <c r="D60" s="23"/>
       <c r="E60" s="24"/>
       <c r="F60" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="D61" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5172,32 +5936,32 @@
       <c r="D62" s="30"/>
       <c r="E62" s="18"/>
       <c r="F62" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="D65" s="22"/>
       <c r="F65" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -5205,26 +5969,26 @@
       <c r="D66" s="23"/>
       <c r="E66" s="24"/>
       <c r="F66" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="D67" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="D68" s="22"/>
       <c r="F68" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -5232,24 +5996,24 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24"/>
       <c r="F69" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="D70" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="D71" s="22"/>
       <c r="F71" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -5257,24 +6021,24 @@
       <c r="D72" s="23"/>
       <c r="E72" s="24"/>
       <c r="F72" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="D73" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="D74" s="22"/>
       <c r="F74" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -5282,26 +6046,26 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24"/>
       <c r="F75" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="D76" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="D77" s="22"/>
       <c r="F77" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -5309,26 +6073,26 @@
       <c r="D78" s="23"/>
       <c r="E78" s="24"/>
       <c r="F78" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="D79" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E79" s="21">
         <v>0</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="D80" s="22"/>
       <c r="F80" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -5336,59 +6100,59 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24"/>
       <c r="F81" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="D82" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="D83" s="22"/>
       <c r="F83" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="D84" s="22"/>
       <c r="F84" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="D85" s="22"/>
       <c r="F85" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="D86" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E86" s="21">
         <v>-20</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="D87" s="22"/>
       <c r="F87" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
@@ -5396,33 +6160,33 @@
       <c r="D88" s="23"/>
       <c r="E88" s="24"/>
       <c r="F88" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="D89" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E89" s="21">
         <v>30.58</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="D90" s="22"/>
       <c r="F90" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="D91" s="22"/>
       <c r="F91" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
@@ -5430,33 +6194,33 @@
       <c r="D92" s="23"/>
       <c r="E92" s="24"/>
       <c r="F92" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="D93" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E93" s="21">
         <v>0.35</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="D94" s="22"/>
       <c r="F94" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="D95" s="22"/>
       <c r="F95" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
@@ -5464,26 +6228,26 @@
       <c r="D96" s="23"/>
       <c r="E96" s="24"/>
       <c r="F96" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="D97" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="D98" s="22"/>
       <c r="F98" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5492,16 +6256,16 @@
       <c r="D99" s="30"/>
       <c r="E99" s="18"/>
       <c r="F99" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D101" s="32"/>
       <c r="E101" s="33"/>
@@ -5510,33 +6274,33 @@
     <row r="102" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E103" s="17">
         <v>90</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="D104" s="22"/>
       <c r="F104" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="D105" s="22"/>
       <c r="F105" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
@@ -5544,26 +6308,26 @@
       <c r="D106" s="23"/>
       <c r="E106" s="24"/>
       <c r="F106" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="D107" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="D108" s="22"/>
       <c r="F108" s="6" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
@@ -5571,26 +6335,26 @@
       <c r="D109" s="23"/>
       <c r="E109" s="24"/>
       <c r="F109" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="D110" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="D111" s="22"/>
       <c r="F111" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
@@ -5598,57 +6362,57 @@
       <c r="D112" s="23"/>
       <c r="E112" s="24"/>
       <c r="F112" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="D113" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="D114" s="22"/>
       <c r="F114" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="D115" s="22"/>
       <c r="F115" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="D116" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E116" s="21">
         <v>0</v>
       </c>
       <c r="F116" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="D117" s="22"/>
       <c r="F117" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="D118" s="22"/>
       <c r="F118" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
@@ -5656,26 +6420,26 @@
       <c r="D119" s="23"/>
       <c r="E119" s="24"/>
       <c r="F119" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="D120" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E120" s="21">
         <v>-9</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="D121" s="22"/>
       <c r="F121" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
@@ -5683,26 +6447,26 @@
       <c r="D122" s="23"/>
       <c r="E122" s="24"/>
       <c r="F122" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="D123" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E123" s="21">
         <v>3.6</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="D124" s="22"/>
       <c r="F124" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
@@ -5710,35 +6474,35 @@
       <c r="D125" s="23"/>
       <c r="E125" s="24"/>
       <c r="F125" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="D126" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F126" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="D127" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="D128" s="22"/>
       <c r="F128" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
@@ -5746,40 +6510,40 @@
       <c r="D129" s="23"/>
       <c r="E129" s="24"/>
       <c r="F129" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="D130" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E130" s="21">
         <v>4</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="D131" s="22"/>
       <c r="F131" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="D132" s="22"/>
       <c r="F132" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="D133" s="22"/>
       <c r="F133" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
@@ -5787,24 +6551,24 @@
       <c r="D134" s="23"/>
       <c r="E134" s="24"/>
       <c r="F134" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="D135" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E135" s="21"/>
       <c r="F135" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="D136" s="22"/>
       <c r="F136" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
@@ -5812,26 +6576,26 @@
       <c r="D137" s="23"/>
       <c r="E137" s="24"/>
       <c r="F137" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="D138" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="D139" s="22"/>
       <c r="F139" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5840,39 +6604,39 @@
       <c r="D140" s="30"/>
       <c r="E140" s="18"/>
       <c r="F140" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E142" s="17">
         <v>90</v>
       </c>
       <c r="F142" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="D143" s="22"/>
       <c r="F143" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="D144" s="22"/>
       <c r="F144" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
@@ -5880,26 +6644,26 @@
       <c r="D145" s="23"/>
       <c r="E145" s="24"/>
       <c r="F145" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
       <c r="D146" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F146" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="D147" s="22"/>
       <c r="F147" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
@@ -5907,26 +6671,26 @@
       <c r="D148" s="23"/>
       <c r="E148" s="24"/>
       <c r="F148" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="D149" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F149" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="D150" s="22"/>
       <c r="F150" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
@@ -5934,57 +6698,57 @@
       <c r="D151" s="23"/>
       <c r="E151" s="24"/>
       <c r="F151" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="D152" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E152" s="21"/>
       <c r="F152" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="D153" s="22"/>
       <c r="F153" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
       <c r="D154" s="22"/>
       <c r="F154" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="D155" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E155" s="21">
         <v>0</v>
       </c>
       <c r="F155" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="D156" s="22"/>
       <c r="F156" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="D157" s="22"/>
       <c r="F157" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
@@ -5992,26 +6756,26 @@
       <c r="D158" s="23"/>
       <c r="E158" s="24"/>
       <c r="F158" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="D159" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E159" s="21">
         <v>-9</v>
       </c>
       <c r="F159" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="D160" s="22"/>
       <c r="F160" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
@@ -6019,26 +6783,26 @@
       <c r="D161" s="23"/>
       <c r="E161" s="24"/>
       <c r="F161" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="D162" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E162" s="21">
         <v>3.6</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="D163" s="22"/>
       <c r="F163" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
@@ -6046,35 +6810,35 @@
       <c r="D164" s="23"/>
       <c r="E164" s="24"/>
       <c r="F164" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="D165" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="D166" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="D167" s="22"/>
       <c r="F167" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
@@ -6082,40 +6846,40 @@
       <c r="D168" s="23"/>
       <c r="E168" s="24"/>
       <c r="F168" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="D169" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E169" s="21">
         <v>4</v>
       </c>
       <c r="F169" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="D170" s="22"/>
       <c r="F170" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="D171" s="22"/>
       <c r="F171" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="D172" s="22"/>
       <c r="F172" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
@@ -6123,24 +6887,24 @@
       <c r="D173" s="23"/>
       <c r="E173" s="24"/>
       <c r="F173" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="D174" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E174" s="21"/>
       <c r="F174" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="D175" s="22"/>
       <c r="F175" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
@@ -6148,26 +6912,26 @@
       <c r="D176" s="23"/>
       <c r="E176" s="24"/>
       <c r="F176" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="D177" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F177" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="D178" s="22"/>
       <c r="F178" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6176,39 +6940,39 @@
       <c r="D179" s="30"/>
       <c r="E179" s="18"/>
       <c r="F179" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E182" s="17">
         <v>90</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="D183" s="22"/>
       <c r="F183" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="D184" s="22"/>
       <c r="F184" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
@@ -6216,26 +6980,26 @@
       <c r="D185" s="23"/>
       <c r="E185" s="24"/>
       <c r="F185" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="D186" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F186" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="D187" s="22"/>
       <c r="F187" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
@@ -6243,26 +7007,26 @@
       <c r="D188" s="23"/>
       <c r="E188" s="24"/>
       <c r="F188" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="D189" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
       <c r="D190" s="22"/>
       <c r="F190" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
@@ -6270,57 +7034,57 @@
       <c r="D191" s="23"/>
       <c r="E191" s="24"/>
       <c r="F191" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
       <c r="D192" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E192" s="21"/>
       <c r="F192" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="D193" s="22"/>
       <c r="F193" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
       <c r="D194" s="22"/>
       <c r="F194" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
       <c r="D195" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E195" s="21">
         <v>0</v>
       </c>
       <c r="F195" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
       <c r="D196" s="22"/>
       <c r="F196" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="D197" s="22"/>
       <c r="F197" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
@@ -6328,26 +7092,26 @@
       <c r="D198" s="23"/>
       <c r="E198" s="24"/>
       <c r="F198" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="D199" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E199" s="21">
         <v>-9</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
       <c r="D200" s="22"/>
       <c r="F200" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
@@ -6355,26 +7119,26 @@
       <c r="D201" s="23"/>
       <c r="E201" s="24"/>
       <c r="F201" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="D202" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E202" s="21">
         <v>3.6</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="D203" s="22"/>
       <c r="F203" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
@@ -6382,35 +7146,35 @@
       <c r="D204" s="23"/>
       <c r="E204" s="24"/>
       <c r="F204" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="D205" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E205" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F205" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
       <c r="D206" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F206" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="D207" s="22"/>
       <c r="F207" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
@@ -6418,40 +7182,40 @@
       <c r="D208" s="23"/>
       <c r="E208" s="24"/>
       <c r="F208" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="D209" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E209" s="21">
         <v>4</v>
       </c>
       <c r="F209" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
       <c r="D210" s="22"/>
       <c r="F210" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="D211" s="22"/>
       <c r="F211" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
       <c r="D212" s="22"/>
       <c r="F212" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
@@ -6459,24 +7223,24 @@
       <c r="D213" s="23"/>
       <c r="E213" s="24"/>
       <c r="F213" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
       <c r="D214" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E214" s="21"/>
       <c r="F214" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
       <c r="D215" s="22"/>
       <c r="F215" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
@@ -6484,26 +7248,26 @@
       <c r="D216" s="23"/>
       <c r="E216" s="24"/>
       <c r="F216" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="D217" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="D218" s="22"/>
       <c r="F218" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6512,25 +7276,11 @@
       <c r="D219" s="30"/>
       <c r="E219" s="18"/>
       <c r="F219" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/assets/pruebaDeEscritorio.xlsx
+++ b/assets/pruebaDeEscritorio.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="611" documentId="8_{EF3F9762-3C77-4725-92BE-8CFABF588FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD830FD1-FE7C-42E2-92A9-98568E259FC6}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{73AC0020-DB56-432C-84B2-B71741C5C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64213D5B-D1C2-413D-944D-F99A6162790B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba de escritorio" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="384">
   <si>
     <t>Estado inicial:</t>
   </si>
@@ -99,15 +99,6 @@
     <t>Presionar teclas especiales (enter, ctrl, alt, etc)</t>
   </si>
   <si>
-    <t>El programa no deja</t>
-  </si>
-  <si>
-    <t>avanzar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (no hay mensajes)</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -147,16 +138,10 @@
     <t>espacios en blanco</t>
   </si>
   <si>
-    <t xml:space="preserve">  t</t>
-  </si>
-  <si>
     <t>espacios en blanco al inicio seguido de una letra</t>
   </si>
   <si>
     <t>una letra seguido de espacios en blanco al final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t    </t>
   </si>
   <si>
     <t>letra, espacio, letra, espacio, letra</t>
@@ -296,12 +281,6 @@
     <t>nombre con mayusculas</t>
   </si>
   <si>
-    <t>Usuario "ARIEL" agregado con exito!</t>
-  </si>
-  <si>
-    <t>Usuario "MaUrO" agregado con exito!</t>
-  </si>
-  <si>
     <t>MaUrO</t>
   </si>
   <si>
@@ -395,9 +374,6 @@
     <t>Idem Paso 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese el ID del usuario al que desea cargar cr├®ditos: </t>
-  </si>
-  <si>
     <t>ID inexistente</t>
   </si>
   <si>
@@ -410,9 +386,6 @@
     <t>letras</t>
   </si>
   <si>
-    <t>Error: Solamente se permiten números enteros.</t>
-  </si>
-  <si>
     <t>No se encontro un usuario con el ID 0.</t>
   </si>
   <si>
@@ -435,9 +408,6 @@
   </si>
   <si>
     <t>espacio y numero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lau  rus.</t>
   </si>
   <si>
     <t>espacio en blanco</t>
@@ -2303,6 +2273,250 @@
   </si>
   <si>
     <t>Paso 23</t>
+  </si>
+  <si>
+    <t>El nombre debe contener como mínimo 3 carácteres</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>El programa no deja escribir</t>
+  </si>
+  <si>
+    <t>*  +  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "t "   </t>
+  </si>
+  <si>
+    <t>" t"</t>
+  </si>
+  <si>
+    <t>Estos pueden ser de a-z(minusculas), letras acentuadas, ñ y espacios intermedios. Presione cualquier tecla para continuar…</t>
+  </si>
+  <si>
+    <t>El nombre debe contener como mínimo 3 caracteres Estos pueden ser de a-z(minusculas), letras acentuadas, ñ y espacios intermedios. Presione cualquier tecla para continuar</t>
+  </si>
+  <si>
+    <t>Error: Solamente se permiten números enteros mayores a 0.</t>
+  </si>
+  <si>
+    <t>Error: El ID no puede estar vacío</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espacio en blanco</t>
+  </si>
+  <si>
+    <t>enteros o decimales con 2 dígitos de precisión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: Monto inválido. (Pueden ingresarse números positivos  </t>
+  </si>
+  <si>
+    <t>Error: El monto no puede estar vacío</t>
+  </si>
+  <si>
+    <t>¡Carga Exitosa! Se han cargado $ 3,60 ARS al jugador  aldo.</t>
+  </si>
+  <si>
+    <t>¡Carga Exitosa! Se han cargado $ 7,00 ARS al jugador lautaro.</t>
+  </si>
+  <si>
+    <t>¡Carga Exitosa! Se han cargado $ 4,00 ARS al jugador lautaro.</t>
+  </si>
+  <si>
+    <t>Paso 8 a)</t>
+  </si>
+  <si>
+    <t>Paso 8 b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el monto a retirar: </t>
+  </si>
+  <si>
+    <t>¡Retiro Exitoso! Se han retirado $ 0,00 ARS al jugador lautaro.</t>
+  </si>
+  <si>
+    <t>¡Retiro Exitoso! Se han retirado $ 3,60 ARS al jugador lautaro.</t>
+  </si>
+  <si>
+    <t>¡Retiro Exitoso! Se han retirado $ 6,00 ARS al jugador lautaro.</t>
+  </si>
+  <si>
+    <t>¡Retiro Exitoso! Se han retirado $ 4,00 ARS al jugador lautaro.</t>
+  </si>
+  <si>
+    <t>Paso 11</t>
+  </si>
+  <si>
+    <t>No se encontro ningun usuario con el ID 90.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el ID de usuario a eliminar: </t>
+  </si>
+  <si>
+    <t>No se encontro ningun usuario con el ID 0.</t>
+  </si>
+  <si>
+    <t>Ingrese el ID de usuario a eliminar:</t>
+  </si>
+  <si>
+    <t>¡Usuario con ID 2 eliminado con exito!</t>
+  </si>
+  <si>
+    <t>Retorno al SubMenu de usuario</t>
+  </si>
+  <si>
+    <t>_02</t>
+  </si>
+  <si>
+    <t>Queda en bucle con presiona una tecla para continuar</t>
+  </si>
+  <si>
+    <t>Al no tener usuarios registrados y querer eliminar</t>
+  </si>
+  <si>
+    <t>¡Usuario con ID 1 eliminado con exito!</t>
+  </si>
+  <si>
+    <t>Paso 15 a</t>
+  </si>
+  <si>
+    <t>No se encontro un usuario con el ID 90.</t>
+  </si>
+  <si>
+    <t>Retorno al submenu de Juegos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el ID del usuario: </t>
+  </si>
+  <si>
+    <t>Ingresa al juego de tragamonedas Animal</t>
+  </si>
+  <si>
+    <t>cero y otro numero (no toma el 0)</t>
+  </si>
+  <si>
+    <t>Paso 15 b</t>
+  </si>
+  <si>
+    <t>Caracteres especiales</t>
+  </si>
+  <si>
+    <t>* + { }</t>
+  </si>
+  <si>
+    <t>Por favor, escribe una opcion valida.</t>
+  </si>
+  <si>
+    <t>Escribe 's' para iniciar o 'n' para terminar:</t>
+  </si>
+  <si>
+    <t>Estas listo para comenzar el juego?</t>
+  </si>
+  <si>
+    <t>Paso 15 c</t>
+  </si>
+  <si>
+    <t>Numeros menores a 100 (apuesta minima)</t>
+  </si>
+  <si>
+    <t>Por favor, ingresa un valor valido entre 100 y tus creditos disponibles (10000).</t>
+  </si>
+  <si>
+    <t>Ingresa tu apuesta (minimo 100 creditos):</t>
+  </si>
+  <si>
+    <t>Numeros que no sean entre el 1-10 (listado de emojis)</t>
+  </si>
+  <si>
+    <t>0 , 11</t>
+  </si>
+  <si>
+    <t>Por favor, selecciona un número valido.</t>
+  </si>
+  <si>
+    <t>Ingresa el numero del emoji que deseas:</t>
+  </si>
+  <si>
+    <t>Paso 15 d</t>
+  </si>
+  <si>
+    <t>Paso 15 g</t>
+  </si>
+  <si>
+    <t>Idem Paso 15</t>
+  </si>
+  <si>
+    <t>letras (que no sean la "s" o la "n")</t>
+  </si>
+  <si>
+    <t>Idem Paso 15 b</t>
+  </si>
+  <si>
+    <t>Paso 17</t>
+  </si>
+  <si>
+    <t>Paso 19 a</t>
+  </si>
+  <si>
+    <t>Paso 19 b</t>
+  </si>
+  <si>
+    <t>Paso 19 c</t>
+  </si>
+  <si>
+    <t>Ingrese su apuesta (Minimo: $ 150,00 ARS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: Monto inválido. (Pueden ingresarse números positivos enteros </t>
+  </si>
+  <si>
+    <t>o decimales con 2 dígitos de precisión.</t>
+  </si>
+  <si>
+    <t>Numeros menores a 150 (apuesta minima)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apuesta invalida o creditos insuficientes.
+</t>
+  </si>
+  <si>
+    <t>Apuesta invalida o creditos insuficientes</t>
+  </si>
+  <si>
+    <t>Regreso al menu del blackjack</t>
+  </si>
+  <si>
+    <t>Paso 19 e</t>
+  </si>
+  <si>
+    <t>Paso 19 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 20 </t>
+  </si>
+  <si>
+    <t>Paso 21 a</t>
+  </si>
+  <si>
+    <t>Ingresa al juego de la rueda de la fortuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 21 c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 21 e </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 23 </t>
+  </si>
+  <si>
+    <t>FIN VALIDACIONES</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2417,8 +2631,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2688,11 +2914,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2734,9 +2995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2744,17 +3002,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2803,19 +3056,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2830,30 +3104,98 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2870,10 +3212,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3165,8 +3503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C334" sqref="C334"/>
+    <sheetView topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,62 +3521,62 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>148</v>
+      <c r="C3" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>148</v>
+      <c r="D4" s="36" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="78"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="35" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3248,39 +3586,39 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="74"/>
+      <c r="C12" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="43"/>
       <c r="D13" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="43"/>
       <c r="D14" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+      <c r="B15" s="43"/>
       <c r="D15" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3290,152 +3628,152 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="74"/>
+      <c r="C19" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="70"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="43"/>
       <c r="D20" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="43"/>
       <c r="D21" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="43"/>
       <c r="D22" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
+      <c r="B23" s="43"/>
       <c r="D23" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="79" t="s">
+      <c r="B27" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="74"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
-        <v>141</v>
+      <c r="B28" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="50" t="s">
-        <v>177</v>
+      <c r="D28" s="46" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="51" t="s">
-        <v>178</v>
+      <c r="D29" s="47" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
-        <v>140</v>
+      <c r="B30" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="53" t="s">
-        <v>176</v>
+      <c r="D31" s="49" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>221</v>
+      <c r="D36" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="39" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="38">
         <v>100000</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>222</v>
+      <c r="D38" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="35" t="s">
-        <v>223</v>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="33" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="35" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3445,391 +3783,391 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="74"/>
+      <c r="C44" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="70"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
+      <c r="B45" s="43"/>
       <c r="D45" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
+      <c r="B46" s="43"/>
       <c r="D46" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="43"/>
+      <c r="D47" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="D47" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
     <row r="48" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="47"/>
+      <c r="B48" s="43"/>
       <c r="D48" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="48"/>
-      <c r="C49" s="54" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="73" t="s">
+      <c r="B52" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="70"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="43"/>
+      <c r="D53" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="43"/>
+      <c r="D54" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="43"/>
+      <c r="D55" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="74"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="47"/>
-      <c r="D53" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="47"/>
-      <c r="D54" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="47"/>
-      <c r="D55" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="56" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="48"/>
-      <c r="C56" s="54" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="74"/>
+      <c r="B59" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="70"/>
     </row>
     <row r="60" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="80"/>
+      <c r="B60" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="75"/>
     </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="61"/>
-      <c r="D61" s="62" t="s">
-        <v>168</v>
+      <c r="B61" s="57"/>
+      <c r="D61" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="71"/>
+      <c r="B62" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="74"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="47"/>
-      <c r="D63" s="62" t="s">
-        <v>169</v>
+      <c r="B63" s="43"/>
+      <c r="D63" s="58" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="47"/>
-      <c r="D64" s="53" t="s">
-        <v>136</v>
+      <c r="B64" s="43"/>
+      <c r="D64" s="49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="47"/>
+      <c r="B65" s="43"/>
       <c r="D65" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="48"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="40" t="s">
-        <v>221</v>
+      <c r="D69" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="41"/>
-      <c r="C70" s="39" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="38">
         <v>100100</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="38" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="34" t="s">
-        <v>222</v>
+      <c r="D71" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="35" t="s">
-        <v>223</v>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="33" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="35" t="s">
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="44" t="s">
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" s="74"/>
+      <c r="B77" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="70"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="47"/>
+      <c r="B78" s="43"/>
       <c r="D78" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="47"/>
+      <c r="B79" s="43"/>
       <c r="D79" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="47"/>
+      <c r="B80" s="43"/>
       <c r="D80" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="48"/>
-      <c r="C81" s="54" t="s">
+      <c r="B81" s="44"/>
+      <c r="C81" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="74"/>
+      <c r="B84" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="70"/>
     </row>
     <row r="85" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="70" t="s">
+      <c r="B85" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="75"/>
+    </row>
+    <row r="86" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="57"/>
+      <c r="D86" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="D85" s="80"/>
-    </row>
-    <row r="86" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="61"/>
-      <c r="D86" s="62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="D87" s="71"/>
+      <c r="D87" s="74"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="47"/>
-      <c r="D88" s="62" t="s">
-        <v>169</v>
+      <c r="B88" s="43"/>
+      <c r="D88" s="58" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="47"/>
-      <c r="D89" s="53" t="s">
-        <v>225</v>
+      <c r="B89" s="43"/>
+      <c r="D89" s="49" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="47"/>
+      <c r="B90" s="43"/>
       <c r="D90" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="48"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="40" t="s">
-        <v>221</v>
+      <c r="D93" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="41"/>
-      <c r="C94" s="39" t="s">
+      <c r="B94" s="37"/>
+      <c r="C94" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="42">
+      <c r="D94" s="38">
         <v>100000</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
-      <c r="C95" s="38" t="s">
+      <c r="B95" s="37"/>
+      <c r="C95" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="34" t="s">
-        <v>222</v>
+      <c r="D95" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="35" t="s">
-        <v>223</v>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="33" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="35" t="s">
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="44" t="s">
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="74"/>
+      <c r="B102" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" s="70"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="47"/>
+      <c r="B103" s="43"/>
       <c r="D103" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="47"/>
+      <c r="B104" s="43"/>
       <c r="D104" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="47"/>
+      <c r="B105" s="43"/>
       <c r="D105" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="48"/>
-      <c r="C106" s="54" t="s">
+      <c r="B106" s="44"/>
+      <c r="C106" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3838,95 +4176,95 @@
       </c>
     </row>
     <row r="109" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D109" s="74"/>
+      <c r="B109" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" s="70"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="47"/>
+      <c r="B110" s="43"/>
       <c r="D110" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="47"/>
+      <c r="B111" s="43"/>
       <c r="D111" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="47"/>
+      <c r="B112" s="43"/>
       <c r="D112" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="47"/>
+      <c r="B113" s="43"/>
       <c r="D113" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="48"/>
-      <c r="C114" s="54" t="s">
+      <c r="B114" s="44"/>
+      <c r="C114" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="C117" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="D117" s="74"/>
+      <c r="B117" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="70"/>
     </row>
     <row r="118" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="C118" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D118" s="80"/>
+      <c r="B118" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D118" s="75"/>
     </row>
     <row r="119" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B119" s="63"/>
-      <c r="D119" s="62" t="s">
-        <v>168</v>
+      <c r="B119" s="59"/>
+      <c r="D119" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" s="63"/>
+      <c r="B120" s="59"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="53" t="s">
-        <v>187</v>
+      <c r="D120" s="49" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B121" s="47" t="s">
-        <v>190</v>
+      <c r="B121" s="43" t="s">
+        <v>180</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="48" t="s">
-        <v>188</v>
+      <c r="B122" s="44" t="s">
+        <v>178</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3935,427 +4273,427 @@
       </c>
     </row>
     <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D125" s="74"/>
+      <c r="B125" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" s="70"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="47"/>
+      <c r="B126" s="43"/>
       <c r="D126" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="47"/>
+      <c r="B127" s="43"/>
       <c r="D127" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="47"/>
+      <c r="B128" s="43"/>
       <c r="D128" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="43"/>
+      <c r="D129" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="44"/>
+      <c r="C130" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="47"/>
-      <c r="D129" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="48"/>
-      <c r="C130" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C133" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D133" s="74"/>
+      <c r="B133" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133" s="70"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="47"/>
+      <c r="B134" s="43"/>
       <c r="D134" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="47"/>
+      <c r="B135" s="43"/>
       <c r="D135" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="47"/>
+      <c r="B136" s="43"/>
       <c r="D136" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="48"/>
-      <c r="C137" s="54" t="s">
+      <c r="B137" s="44"/>
+      <c r="C137" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C140" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D140" s="74"/>
+      <c r="B140" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C140" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="70"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="47"/>
+      <c r="B141" s="43"/>
       <c r="D141" s="4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="47"/>
+      <c r="B142" s="43"/>
       <c r="D142" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="47"/>
+      <c r="B143" s="43"/>
       <c r="D143" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="47"/>
+      <c r="B144" s="43"/>
       <c r="D144" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="47"/>
+      <c r="B145" s="43"/>
       <c r="D145" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="48"/>
-      <c r="C146" s="54" t="s">
+      <c r="B146" s="44"/>
+      <c r="C146" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C151" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="D151" s="74"/>
+      <c r="B151" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C151" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" s="70"/>
     </row>
     <row r="152" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B152" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="C152" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D152" s="71"/>
+      <c r="B152" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" s="74"/>
     </row>
     <row r="153" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="63"/>
-      <c r="D153" s="62" t="s">
-        <v>168</v>
+      <c r="B153" s="59"/>
+      <c r="D153" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="63"/>
+      <c r="B154" s="59"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="53" t="s">
-        <v>137</v>
+      <c r="D154" s="49" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="47" t="s">
-        <v>190</v>
+      <c r="B155" s="43" t="s">
+        <v>180</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="48" t="s">
-        <v>188</v>
+      <c r="B156" s="44" t="s">
+        <v>178</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="9" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C157" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D157" s="74"/>
+    </row>
+    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="44"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B159" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C159" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" s="75"/>
+    </row>
+    <row r="160" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="44"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B161" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D161" s="74"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="43"/>
+      <c r="D162" s="58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="44"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C164" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D164" s="74"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="43"/>
+      <c r="D165" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="44"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C157" s="72" t="s">
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B167" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C167" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D167" s="74"/>
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="43"/>
+      <c r="D168" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="44"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D157" s="71"/>
-    </row>
-    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="48"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="C159" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="D159" s="80"/>
-    </row>
-    <row r="160" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="48"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C161" s="70" t="s">
+    </row>
+    <row r="170" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B170" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="D161" s="71"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="47"/>
-      <c r="D162" s="62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="48"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="46" t="s">
+      <c r="C170" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C164" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="D164" s="71"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="47"/>
-      <c r="D165" s="53" t="s">
+      <c r="D170" s="79"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="43"/>
+      <c r="D171" s="58" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="48"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="51" t="s">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="43"/>
+      <c r="D172" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="E166" s="5"/>
-    </row>
-    <row r="167" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="D167" s="71"/>
-      <c r="E167" s="5"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="47"/>
-      <c r="D168" s="53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="48"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="C170" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="D170" s="76"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="47"/>
-      <c r="D171" s="62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="47"/>
-      <c r="D172" s="53" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="47"/>
+      <c r="B173" s="43"/>
       <c r="D173" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="48"/>
+      <c r="B174" s="44"/>
       <c r="C174" s="8"/>
       <c r="D174" s="9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C176" s="39" t="s">
+      <c r="C176" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D176" s="40" t="s">
-        <v>221</v>
+      <c r="D176" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="41"/>
-      <c r="C177" s="39" t="s">
+      <c r="B177" s="37"/>
+      <c r="C177" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D177" s="42">
+      <c r="D177" s="38">
         <v>100100</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="41"/>
-      <c r="C178" s="38" t="s">
+      <c r="B178" s="37"/>
+      <c r="C178" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="41"/>
-      <c r="C179" s="41"/>
-      <c r="D179" s="35" t="s">
+      <c r="B179" s="37"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="41"/>
-      <c r="C180" s="41"/>
-      <c r="D180" s="35" t="s">
+      <c r="B180" s="37"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="181" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="43"/>
-      <c r="C181" s="43"/>
-      <c r="D181" s="44" t="s">
+      <c r="B181" s="39"/>
+      <c r="C181" s="39"/>
+      <c r="D181" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C184" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D184" s="74"/>
+      <c r="B184" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D184" s="70"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="47"/>
+      <c r="B185" s="43"/>
       <c r="D185" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="47"/>
+      <c r="B186" s="43"/>
       <c r="D186" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="47"/>
+      <c r="B187" s="43"/>
       <c r="D187" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="47"/>
+      <c r="B188" s="43"/>
       <c r="D188" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="47"/>
+      <c r="B189" s="43"/>
       <c r="D189" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="190" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="48"/>
-      <c r="C190" s="54" t="s">
+      <c r="B190" s="44"/>
+      <c r="C190" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
@@ -4365,631 +4703,620 @@
     </row>
     <row r="192" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="193" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C193" s="79" t="s">
+      <c r="B193" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D193" s="74"/>
+      <c r="C193" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D193" s="70"/>
     </row>
     <row r="194" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="C194" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D194" s="71"/>
+      <c r="B194" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C194" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D194" s="74"/>
     </row>
     <row r="195" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B195" s="63"/>
-      <c r="D195" s="62" t="s">
-        <v>168</v>
+      <c r="B195" s="59"/>
+      <c r="D195" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="196" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="63"/>
+      <c r="B196" s="59"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="53" t="s">
-        <v>229</v>
+      <c r="D196" s="49" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B197" s="47" t="s">
-        <v>190</v>
+      <c r="B197" s="43" t="s">
+        <v>180</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="48" t="s">
-        <v>188</v>
+      <c r="B198" s="44" t="s">
+        <v>178</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="9" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B199" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C199" s="72" t="s">
+      <c r="B199" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C199" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D199" s="74"/>
+    </row>
+    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="44"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B201" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C201" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D201" s="75"/>
+    </row>
+    <row r="202" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="44"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B203" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C203" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D203" s="74"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="43"/>
+      <c r="D204" s="58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="44"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B206" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C206" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206" s="74"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="43"/>
+      <c r="D207" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="44"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B209" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C209" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D209" s="74"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" s="43"/>
+      <c r="D210" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="44"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D199" s="71"/>
-    </row>
-    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="48"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B201" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="C201" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="D201" s="80"/>
-    </row>
-    <row r="202" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="48"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B203" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C203" s="70" t="s">
+    </row>
+    <row r="212" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B212" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="D203" s="71"/>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="47"/>
-      <c r="D204" s="62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="48"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B206" s="46" t="s">
+      <c r="C212" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C206" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="D206" s="71"/>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="47"/>
-      <c r="D207" s="53" t="s">
+      <c r="D212" s="79"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="43"/>
+      <c r="D213" s="58" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="48"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B209" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="C209" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="D209" s="71"/>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="47"/>
-      <c r="D210" s="53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="48"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B212" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="C212" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="D212" s="76"/>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B213" s="47"/>
-      <c r="D213" s="62" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B214" s="47"/>
-      <c r="D214" s="53" t="s">
-        <v>218</v>
+      <c r="B214" s="43"/>
+      <c r="D214" s="49" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="47"/>
+      <c r="B215" s="43"/>
       <c r="D215" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="48"/>
+      <c r="B216" s="44"/>
       <c r="C216" s="8"/>
       <c r="D216" s="9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C219" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D219" s="74"/>
+      <c r="B219" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C219" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D219" s="70"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="47"/>
+      <c r="B220" s="43"/>
       <c r="D220" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="47"/>
+      <c r="B221" s="43"/>
       <c r="D221" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B222" s="47"/>
+      <c r="B222" s="43"/>
       <c r="D222" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="47"/>
+      <c r="B223" s="43"/>
       <c r="D223" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="47"/>
+      <c r="B224" s="43"/>
       <c r="D224" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="225" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="48"/>
-      <c r="C225" s="54" t="s">
+      <c r="B225" s="44"/>
+      <c r="C225" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="228" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C228" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="D228" s="74"/>
+      <c r="B228" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C228" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="D228" s="70"/>
     </row>
     <row r="229" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B229" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="C229" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="D229" s="76"/>
+      <c r="B229" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D229" s="79"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B230" s="47"/>
-      <c r="D230" s="62" t="s">
-        <v>116</v>
+      <c r="B230" s="43"/>
+      <c r="D230" s="58" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="47"/>
-      <c r="D231" s="53" t="s">
-        <v>241</v>
+      <c r="B231" s="43"/>
+      <c r="D231" s="49" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B232" s="47"/>
+      <c r="B232" s="43"/>
       <c r="C232" s="16"/>
       <c r="D232" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="48"/>
-      <c r="C233" s="65"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="61"/>
       <c r="D233" s="9" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B234" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C234" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D234" s="71"/>
+      <c r="B234" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C234" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D234" s="74"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B235" s="47"/>
+      <c r="B235" s="43"/>
       <c r="C235" s="16"/>
       <c r="D235" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="43"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="44"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B238" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C238" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D238" s="79"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="43"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="44"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="65" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B241" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C241" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D241" s="74"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="43"/>
+      <c r="C242" s="45"/>
+      <c r="D242" s="49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B243" s="43"/>
+      <c r="C243" s="45"/>
+      <c r="D243" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="43"/>
+      <c r="C244" s="45"/>
+      <c r="D244" s="67" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B236" s="47"/>
-      <c r="C236" s="16"/>
-      <c r="D236" s="66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="48"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="68" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B238" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="C238" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D238" s="76"/>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B239" s="47"/>
-      <c r="C239" s="16"/>
-      <c r="D239" s="67" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="48"/>
-      <c r="C240" s="18"/>
-      <c r="D240" s="69" t="s">
+    <row r="245" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="44"/>
+      <c r="C245" s="61"/>
+      <c r="D245" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B241" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C241" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="D241" s="71"/>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="47"/>
-      <c r="C242" s="49"/>
-      <c r="D242" s="53" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B243" s="47"/>
-      <c r="C243" s="49"/>
-      <c r="D243" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="47"/>
-      <c r="C244" s="49"/>
-      <c r="D244" s="83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="245" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="48"/>
-      <c r="C245" s="65"/>
-      <c r="D245" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
     <row r="246" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B246" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="C246" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="D246" s="71"/>
+      <c r="B246" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C246" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D246" s="74"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="47"/>
-      <c r="C247" s="49"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="45"/>
       <c r="D247" s="6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B248" s="63"/>
+      <c r="B248" s="59"/>
       <c r="C248" s="5"/>
-      <c r="D248" s="66" t="s">
-        <v>253</v>
+      <c r="D248" s="62" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="249" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B249" s="63"/>
+      <c r="B249" s="59"/>
       <c r="C249" s="5"/>
       <c r="D249" s="6" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="47"/>
+      <c r="B250" s="43"/>
       <c r="C250" s="5"/>
       <c r="D250" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="47"/>
-      <c r="D251" s="81" t="s">
-        <v>270</v>
+      <c r="B251" s="43"/>
+      <c r="D251" s="66" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="47"/>
-      <c r="D252" s="53" t="s">
-        <v>258</v>
+      <c r="B252" s="43"/>
+      <c r="D252" s="49" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B253" s="47"/>
+      <c r="B253" s="43"/>
       <c r="D253" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="47"/>
-      <c r="C254" s="82"/>
-      <c r="D254" s="83" t="s">
-        <v>260</v>
+      <c r="B254" s="43"/>
+      <c r="D254" s="67" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="47"/>
-      <c r="C255" s="82"/>
+      <c r="B255" s="43"/>
       <c r="D255" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="47"/>
-      <c r="C256" s="82"/>
-      <c r="D256" s="53" t="s">
-        <v>262</v>
+      <c r="B256" s="43"/>
+      <c r="D256" s="49" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B257" s="47"/>
-      <c r="C257" s="82"/>
+      <c r="B257" s="43"/>
       <c r="D257" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="47"/>
-      <c r="C258" s="82"/>
+      <c r="B258" s="43"/>
       <c r="D258" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="48"/>
+      <c r="B259" s="44"/>
       <c r="C259" s="8"/>
       <c r="D259" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B260" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="C260" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="D260" s="80"/>
+      <c r="B260" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C260" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D260" s="75"/>
     </row>
     <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="48"/>
-      <c r="C261" s="82"/>
-      <c r="D261" s="51" t="s">
-        <v>266</v>
+      <c r="B261" s="44"/>
+      <c r="D261" s="47" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B262" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="C262" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D262" s="71"/>
+      <c r="B262" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C262" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D262" s="74"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B263" s="47"/>
-      <c r="C263" s="82"/>
+      <c r="B263" s="43"/>
       <c r="D263" s="6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="47"/>
-      <c r="C264" s="82"/>
+      <c r="B264" s="43"/>
       <c r="D264" s="6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B265" s="47"/>
-      <c r="C265" s="82"/>
-      <c r="D265" s="62" t="s">
-        <v>273</v>
+      <c r="B265" s="43"/>
+      <c r="D265" s="58" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="48"/>
+      <c r="B266" s="44"/>
       <c r="C266" s="8"/>
       <c r="D266" s="13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B267" s="82"/>
-      <c r="C267" s="82"/>
-      <c r="D267" s="85"/>
+      <c r="D267" s="68"/>
     </row>
     <row r="268" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="269" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="38" t="s">
+      <c r="B269" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C269" s="39" t="s">
+      <c r="C269" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D269" s="40" t="s">
-        <v>221</v>
+      <c r="D269" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="270" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="41"/>
-      <c r="C270" s="39" t="s">
+      <c r="B270" s="37"/>
+      <c r="C270" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D270" s="42">
+      <c r="D270" s="38">
         <v>99700</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B271" s="41"/>
-      <c r="C271" s="38" t="s">
+      <c r="B271" s="37"/>
+      <c r="C271" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D271" s="34" t="s">
-        <v>222</v>
+      <c r="D271" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B272" s="41"/>
-      <c r="C272" s="41"/>
-      <c r="D272" s="35" t="s">
-        <v>223</v>
+      <c r="B272" s="37"/>
+      <c r="C272" s="37"/>
+      <c r="D272" s="33" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B273" s="41"/>
-      <c r="C273" s="41"/>
-      <c r="D273" s="35" t="s">
+      <c r="B273" s="37"/>
+      <c r="C273" s="37"/>
+      <c r="D273" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="43"/>
-      <c r="C274" s="43"/>
-      <c r="D274" s="44" t="s">
+      <c r="B274" s="39"/>
+      <c r="C274" s="39"/>
+      <c r="D274" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="276" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B276" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="277" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C277" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D277" s="74"/>
+      <c r="B277" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C277" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D277" s="70"/>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B278" s="47"/>
+      <c r="B278" s="43"/>
       <c r="D278" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B279" s="47"/>
+      <c r="B279" s="43"/>
       <c r="D279" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B280" s="47"/>
+      <c r="B280" s="43"/>
       <c r="D280" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B281" s="47"/>
+      <c r="B281" s="43"/>
       <c r="D281" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="47"/>
+      <c r="B282" s="43"/>
       <c r="D282" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="283" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="48"/>
-      <c r="C283" s="54" t="s">
+      <c r="B283" s="44"/>
+      <c r="C283" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
@@ -4997,166 +5324,162 @@
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
     </row>
-    <row r="285" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="82"/>
-      <c r="C285" s="82"/>
-      <c r="D285" s="82"/>
-    </row>
+    <row r="285" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="286" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C286" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="D286" s="74"/>
+      <c r="B286" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C286" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="D286" s="70"/>
     </row>
     <row r="287" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B287" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="C287" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="D287" s="76"/>
+      <c r="B287" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C287" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D287" s="79"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B288" s="47"/>
-      <c r="D288" s="62" t="s">
-        <v>272</v>
+      <c r="B288" s="43"/>
+      <c r="D288" s="58" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B289" s="47"/>
-      <c r="D289" s="53" t="s">
-        <v>276</v>
+      <c r="B289" s="43"/>
+      <c r="D289" s="49" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B290" s="47"/>
+      <c r="B290" s="43"/>
       <c r="C290" s="16"/>
       <c r="D290" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B291" s="47"/>
-      <c r="C291" s="49"/>
+      <c r="B291" s="43"/>
+      <c r="C291" s="45"/>
       <c r="D291" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="292" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="48"/>
+      <c r="B292" s="44"/>
       <c r="C292" s="8"/>
       <c r="D292" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="293" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="58" t="s">
+      <c r="B293" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="C293" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D293" s="72"/>
+    </row>
+    <row r="294" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B294" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C294" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="D294" s="74"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="43"/>
+      <c r="D295" s="58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="43"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B297" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C297" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="D297" s="75"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" s="43"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="43"/>
+      <c r="C299" s="16"/>
+      <c r="D299" s="49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B300" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C300" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="D300" s="75"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" s="43"/>
+      <c r="D301" s="49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" s="43"/>
+      <c r="D302" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" s="43"/>
+      <c r="D303" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C293" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="D293" s="87"/>
-    </row>
-    <row r="294" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B294" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="C294" s="70" t="s">
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" s="43"/>
+      <c r="D304" s="48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" s="43"/>
+      <c r="D305" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" s="43"/>
+      <c r="D306" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="44"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="47" t="s">
         <v>281</v>
-      </c>
-      <c r="D294" s="71"/>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B295" s="47"/>
-      <c r="D295" s="62" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="296" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="47"/>
-      <c r="C296" s="84"/>
-      <c r="D296" s="53" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="297" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B297" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C297" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="D297" s="80"/>
-    </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B298" s="47"/>
-      <c r="C298" s="84"/>
-      <c r="D298" s="53" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="299" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="47"/>
-      <c r="C299" s="84"/>
-      <c r="D299" s="53" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B300" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="C300" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="D300" s="80"/>
-    </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B301" s="47"/>
-      <c r="D301" s="53" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B302" s="47"/>
-      <c r="D302" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B303" s="47"/>
-      <c r="D303" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B304" s="47"/>
-      <c r="D304" s="52" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B305" s="47"/>
-      <c r="D305" s="83" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B306" s="47"/>
-      <c r="D306" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="307" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="48"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="51" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
@@ -5164,167 +5487,192 @@
     </row>
     <row r="309" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="310" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="38" t="s">
+      <c r="B310" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C310" s="39" t="s">
+      <c r="C310" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D310" s="40" t="s">
+      <c r="D310" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="311" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="41"/>
-      <c r="C311" s="39" t="s">
+      <c r="B311" s="37"/>
+      <c r="C311" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D311" s="42">
+      <c r="D311" s="38">
         <v>98700</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B312" s="41"/>
-      <c r="C312" s="38" t="s">
+      <c r="B312" s="37"/>
+      <c r="C312" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D312" s="34" t="s">
+      <c r="D312" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B313" s="41"/>
-      <c r="C313" s="41"/>
-      <c r="D313" s="35" t="s">
+      <c r="B313" s="37"/>
+      <c r="C313" s="37"/>
+      <c r="D313" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B314" s="41"/>
-      <c r="C314" s="41"/>
-      <c r="D314" s="35" t="s">
+      <c r="B314" s="37"/>
+      <c r="C314" s="37"/>
+      <c r="D314" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="315" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="43"/>
-      <c r="C315" s="43"/>
-      <c r="D315" s="44" t="s">
+      <c r="B315" s="39"/>
+      <c r="C315" s="39"/>
+      <c r="D315" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="317" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B317" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="318" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="C318" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D318" s="74"/>
+      <c r="B318" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C318" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D318" s="70"/>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B319" s="47"/>
+      <c r="B319" s="43"/>
       <c r="D319" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B320" s="47"/>
+      <c r="B320" s="43"/>
       <c r="D320" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B321" s="47"/>
+      <c r="B321" s="43"/>
       <c r="D321" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B322" s="47"/>
+      <c r="B322" s="43"/>
       <c r="D322" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="323" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="47"/>
+      <c r="B323" s="43"/>
       <c r="D323" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="44"/>
+      <c r="C324" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="11" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="48"/>
-      <c r="C324" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="326" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B326" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="327" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="C327" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D327" s="74"/>
+      <c r="B327" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C327" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D327" s="70"/>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B328" s="47"/>
+      <c r="B328" s="43"/>
       <c r="D328" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B329" s="47"/>
+      <c r="B329" s="43"/>
       <c r="D329" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="330" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="47"/>
+      <c r="B330" s="43"/>
       <c r="D330" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="331" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="48"/>
-      <c r="C331" s="54" t="s">
+      <c r="B331" s="44"/>
+      <c r="C331" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="333" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="C293:D293"/>
-    <mergeCell ref="C294:D294"/>
-    <mergeCell ref="C297:D297"/>
-    <mergeCell ref="C300:D300"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C277:D277"/>
-    <mergeCell ref="C286:D286"/>
-    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C167:D167"/>
     <mergeCell ref="C203:D203"/>
     <mergeCell ref="C206:D206"/>
     <mergeCell ref="C209:D209"/>
@@ -5333,42 +5681,17 @@
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C199:D199"/>
     <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="C294:D294"/>
+    <mergeCell ref="C297:D297"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="C318:D318"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5378,10 +5701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:F219"/>
+  <dimension ref="B1:J386"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221:F222"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5389,9 +5712,10 @@
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="21" x14ac:dyDescent="0.35">
@@ -5399,18 +5723,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -5419,7 +5742,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -5431,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -5443,7 +5766,7 @@
         <v>-9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5453,7 +5776,9 @@
         <v>26</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -5461,16 +5786,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -5482,7 +5807,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -5494,7 +5819,7 @@
         <v>-1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5504,36 +5829,40 @@
         <v>26</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="D15" s="22"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="D16" s="22"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="19" t="s">
         <v>19</v>
       </c>
@@ -5541,125 +5870,137 @@
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="D17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="21">
+        <v>33</v>
+      </c>
+      <c r="E17" s="84">
         <v>9</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>38</v>
+      <c r="F17" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="D18" s="22"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="D19" s="22"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="85"/>
+      <c r="F20" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="D21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="D22" s="22"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="D23" s="22"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="28" t="s">
+      <c r="E24" s="85"/>
+      <c r="F24" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="D25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="92"/>
       <c r="F26" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="D27" s="22"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="28" t="s">
+      <c r="E28" s="85"/>
+      <c r="F28" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="D29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="D30" s="22"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="D31" s="22"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="19" t="s">
         <v>19</v>
       </c>
@@ -5667,147 +6008,155 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="D32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="D33" s="22"/>
+      <c r="E33" s="91"/>
       <c r="F33" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="28" t="s">
+      <c r="E34" s="85"/>
+      <c r="F34" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="D35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="29" t="s">
-        <v>50</v>
+      <c r="E36" s="85"/>
+      <c r="F36" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="D37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="D38" s="22"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="D39" s="22"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="28" t="s">
+      <c r="E40" s="85"/>
+      <c r="F40" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="D41" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="D42" s="22"/>
+      <c r="E42" s="89"/>
       <c r="F42" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="D43" s="22"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="28" t="s">
+      <c r="E44" s="90"/>
+      <c r="F44" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="D45" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="D46" s="22"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="D47" s="22"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="D48" s="22"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="19" t="s">
         <v>19</v>
       </c>
@@ -5815,323 +6164,333 @@
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="D49" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E49" s="21"/>
-      <c r="F49" s="27" t="s">
-        <v>38</v>
+      <c r="F49" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="D50" s="22"/>
       <c r="F50" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="D51" s="22"/>
       <c r="F51" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="D52" s="23"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="D53" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="D54" s="22"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="D55" s="22"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="28" t="s">
+      <c r="E56" s="90"/>
+      <c r="F56" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="D57" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="D59" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>66</v>
+      <c r="D59" s="23"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
-      <c r="D61" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="93" t="s">
         <v>22</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="D65" s="22"/>
+      <c r="E65" s="91"/>
       <c r="F65" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="29" t="s">
-        <v>75</v>
+      <c r="E66" s="85"/>
+      <c r="F66" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="D67" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="E67" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="D68" s="22"/>
+      <c r="E68" s="91"/>
       <c r="F68" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="29" t="s">
-        <v>75</v>
+      <c r="E69" s="85"/>
+      <c r="F69" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="D70" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="21"/>
-      <c r="F70" s="27" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="E70" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="D71" s="22"/>
+      <c r="E71" s="91"/>
       <c r="F71" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="29" t="s">
-        <v>75</v>
+      <c r="E72" s="85"/>
+      <c r="F72" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="D73" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E73" s="21"/>
-      <c r="F73" s="27" t="s">
-        <v>77</v>
+      <c r="F73" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="D74" s="22"/>
       <c r="F74" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="D75" s="23"/>
       <c r="E75" s="24"/>
-      <c r="F75" s="29" t="s">
-        <v>75</v>
+      <c r="F75" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="D76" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="E76" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="D77" s="22"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="D78" s="23"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="29" t="s">
-        <v>75</v>
+      <c r="E78" s="85"/>
+      <c r="F78" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="D79" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="21">
+        <v>73</v>
+      </c>
+      <c r="E79" s="84">
         <v>0</v>
       </c>
-      <c r="F79" s="27" t="s">
-        <v>81</v>
+      <c r="F79" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="D80" s="22"/>
+      <c r="E80" s="91"/>
       <c r="F80" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="D81" s="23"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="29" t="s">
-        <v>75</v>
+      <c r="E81" s="85"/>
+      <c r="F81" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="D82" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="E82" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="D83" s="22"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="D84" s="22"/>
+      <c r="E84" s="120"/>
       <c r="F84" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="D85" s="22"/>
+      <c r="E85" s="121"/>
       <c r="F85" s="6" t="s">
         <v>19</v>
       </c>
@@ -6139,124 +6498,130 @@
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="D86" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" s="21">
+        <v>77</v>
+      </c>
+      <c r="E86" s="84">
         <v>-20</v>
       </c>
-      <c r="F86" s="27" t="s">
-        <v>85</v>
+      <c r="F86" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="D87" s="22"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="29" t="s">
-        <v>75</v>
+      <c r="E88" s="85"/>
+      <c r="F88" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="D89" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E89" s="21">
+        <v>79</v>
+      </c>
+      <c r="E89" s="84">
         <v>30.58</v>
       </c>
-      <c r="F89" s="27" t="s">
-        <v>90</v>
+      <c r="F89" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="D90" s="22"/>
+      <c r="E90" s="91"/>
       <c r="F90" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="D91" s="22"/>
+      <c r="E91" s="91"/>
       <c r="F91" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="29" t="s">
+      <c r="E92" s="85"/>
+      <c r="F92" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="D93" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E93" s="21">
+        <v>80</v>
+      </c>
+      <c r="E93" s="84">
         <v>0.35</v>
       </c>
-      <c r="F93" s="27" t="s">
-        <v>91</v>
+      <c r="F93" s="26" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="D94" s="22"/>
+      <c r="E94" s="91"/>
       <c r="F94" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="D95" s="22"/>
+      <c r="E95" s="91"/>
       <c r="F95" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="29" t="s">
+      <c r="E96" s="85"/>
+      <c r="F96" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="D97" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F97" s="27" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="E97" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="D98" s="22"/>
+      <c r="E98" s="117"/>
       <c r="F98" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="18"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="118"/>
       <c r="F99" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6264,1022 +6629,2660 @@
       <c r="B101" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="32"/>
-      <c r="E101" s="33"/>
+      <c r="C101" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
       <c r="F101" s="11"/>
     </row>
     <row r="102" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="17">
+    <row r="103" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="34" t="s">
-        <v>75</v>
-      </c>
+      <c r="D103" s="30"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="5"/>
-      <c r="D104" s="22"/>
-      <c r="F104" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="D105" s="22"/>
-      <c r="F105" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="B104" s="94"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="95"/>
+      <c r="F104" s="94"/>
+    </row>
+    <row r="105" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="36" t="s">
-        <v>101</v>
+      <c r="B106" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="93">
+        <v>90</v>
+      </c>
+      <c r="F106" s="103" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
-      <c r="D107" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>103</v>
+      <c r="D107" s="22"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="D108" s="22"/>
-      <c r="F108" s="6" t="s">
-        <v>138</v>
+      <c r="E108" s="85"/>
+      <c r="F108" s="102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="29" t="s">
-        <v>37</v>
+      <c r="D109" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
-      <c r="D110" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>103</v>
+      <c r="D110" s="22"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
-      <c r="D111" s="22"/>
-      <c r="F111" s="6" t="s">
-        <v>98</v>
+      <c r="D111" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="29" t="s">
-        <v>37</v>
+      <c r="D112" s="22"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="D113" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E113" s="21"/>
-      <c r="F113" s="27" t="s">
-        <v>103</v>
+        <v>313</v>
+      </c>
+      <c r="E113" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="D114" s="22"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="6" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
-      <c r="D115" s="22"/>
-      <c r="F115" s="6" t="s">
-        <v>98</v>
+      <c r="D115" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" s="84">
+        <v>0</v>
+      </c>
+      <c r="F115" s="100" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
-      <c r="D116" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E116" s="21">
-        <v>0</v>
-      </c>
-      <c r="F116" s="37" t="s">
-        <v>75</v>
+      <c r="D116" s="22"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="D117" s="22"/>
-      <c r="F117" s="35" t="s">
-        <v>104</v>
+      <c r="E117" s="85"/>
+      <c r="F117" s="102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
-      <c r="D118" s="22"/>
-      <c r="F118" s="35" t="s">
-        <v>37</v>
+      <c r="D118" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="84">
+        <v>-9</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="36" t="s">
-        <v>101</v>
+      <c r="D119" s="22"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="D120" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E120" s="21">
-        <v>-9</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>103</v>
+        <v>79</v>
+      </c>
+      <c r="E120" s="84">
+        <v>3.6</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="D121" s="22"/>
+      <c r="E121" s="85"/>
       <c r="F121" s="6" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="29" t="s">
+      <c r="D122" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E122" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122" s="100" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
-      <c r="D123" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E123" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>103</v>
+      <c r="D123" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E123" s="91"/>
+      <c r="F123" s="101" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="D124" s="22"/>
-      <c r="F124" s="6" t="s">
-        <v>37</v>
+      <c r="E124" s="91"/>
+      <c r="F124" s="101" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="D125" s="23"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="29" t="s">
-        <v>98</v>
+      <c r="E125" s="85"/>
+      <c r="F125" s="102" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="D126" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F126" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="E126" s="84">
+        <v>4</v>
+      </c>
+      <c r="F126" s="100" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
-      <c r="D127" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F127" s="35" t="s">
-        <v>108</v>
+      <c r="D127" s="22"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="101" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="D128" s="22"/>
-      <c r="F128" s="35" t="s">
-        <v>109</v>
+      <c r="E128" s="91"/>
+      <c r="F128" s="101" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="36" t="s">
-        <v>37</v>
+      <c r="D129" s="22"/>
+      <c r="E129" s="91"/>
+      <c r="F129" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
-      <c r="D130" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E130" s="21">
-        <v>4</v>
-      </c>
-      <c r="F130" s="37" t="s">
-        <v>107</v>
+      <c r="D130" s="23"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
-      <c r="D131" s="22"/>
-      <c r="F131" s="35" t="s">
-        <v>108</v>
+      <c r="D131" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="82"/>
+      <c r="F131" s="26" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="D132" s="22"/>
-      <c r="F132" s="35" t="s">
-        <v>112</v>
+      <c r="E132" s="87"/>
+      <c r="F132" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
-      <c r="D133" s="22"/>
-      <c r="F133" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="5"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="36" t="s">
-        <v>101</v>
+      <c r="D133" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E133" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="86"/>
+      <c r="F134" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="5"/>
-      <c r="D135" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E135" s="21"/>
-      <c r="F135" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="5"/>
-      <c r="D136" s="22"/>
-      <c r="F136" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="B135" s="94"/>
+      <c r="C135" s="94"/>
+    </row>
+    <row r="136" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="5"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="29" t="s">
-        <v>98</v>
+      <c r="B137" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E137" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
-      <c r="D138" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>103</v>
+      <c r="C138" s="94"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="91"/>
+      <c r="F138" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="D139" s="22"/>
+      <c r="E139" s="85"/>
       <c r="F139" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="D140" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E140" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E142" s="17">
-        <v>90</v>
-      </c>
-      <c r="F142" s="34" t="s">
-        <v>75</v>
+      <c r="B142" s="5"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
-      <c r="D143" s="22"/>
-      <c r="F143" s="35" t="s">
-        <v>100</v>
+      <c r="D143" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="D144" s="22"/>
-      <c r="F144" s="35" t="s">
-        <v>37</v>
+      <c r="E144" s="85"/>
+      <c r="F144" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="36" t="s">
-        <v>101</v>
+      <c r="D145" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E145" s="84">
+        <v>0</v>
+      </c>
+      <c r="F145" s="97" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
-      <c r="D146" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="27" t="s">
-        <v>103</v>
-      </c>
+      <c r="D146" s="22"/>
+      <c r="E146" s="91"/>
+      <c r="F146" s="98"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="D147" s="22"/>
-      <c r="F147" s="6" t="s">
-        <v>98</v>
+      <c r="E147" s="91"/>
+      <c r="F147" s="98" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="D148" s="23"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="29" t="s">
-        <v>37</v>
+      <c r="E148" s="85"/>
+      <c r="F148" s="99" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="D149" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F149" s="27" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="E149" s="84">
+        <v>-9</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="D150" s="22"/>
+      <c r="E150" s="91"/>
       <c r="F150" s="6" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="D151" s="23"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="29" t="s">
-        <v>37</v>
+      <c r="E151" s="85"/>
+      <c r="F151" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="D152" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E152" s="21"/>
-      <c r="F152" s="27" t="s">
-        <v>103</v>
+        <v>79</v>
+      </c>
+      <c r="E152" s="84">
+        <v>3.6</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="D153" s="22"/>
+      <c r="E153" s="91"/>
       <c r="F153" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
-      <c r="D154" s="22"/>
-      <c r="F154" s="6" t="s">
-        <v>98</v>
+      <c r="D154" s="23"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="D155" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E155" s="21">
-        <v>0</v>
-      </c>
-      <c r="F155" s="37" t="s">
         <v>75</v>
+      </c>
+      <c r="E155" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F155" s="100" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
-      <c r="D156" s="22"/>
-      <c r="F156" s="35" t="s">
-        <v>104</v>
+      <c r="D156" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" s="91"/>
+      <c r="F156" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="D157" s="22"/>
-      <c r="F157" s="35" t="s">
-        <v>37</v>
+      <c r="E157" s="85"/>
+      <c r="F157" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="36" t="s">
-        <v>101</v>
+      <c r="D158" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E158" s="84">
+        <v>4</v>
+      </c>
+      <c r="F158" s="100" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
-      <c r="D159" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E159" s="21">
-        <v>-9</v>
-      </c>
-      <c r="F159" s="27" t="s">
-        <v>103</v>
+      <c r="D159" s="22"/>
+      <c r="E159" s="91"/>
+      <c r="F159" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
-      <c r="D160" s="22"/>
-      <c r="F160" s="6" t="s">
-        <v>37</v>
+      <c r="D160" s="23"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="29" t="s">
-        <v>98</v>
+      <c r="D161" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E161" s="21"/>
+      <c r="F161" s="26" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
-      <c r="D162" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E162" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>103</v>
+      <c r="D162" s="22"/>
+      <c r="F162" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
-      <c r="D163" s="22"/>
-      <c r="F163" s="6" t="s">
-        <v>37</v>
+      <c r="D163" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E163" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="5"/>
-      <c r="D165" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F165" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="5"/>
-      <c r="D166" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F166" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="5"/>
-      <c r="D167" s="22"/>
-      <c r="F167" s="35" t="s">
+      <c r="D164" s="22"/>
+      <c r="E164" s="91"/>
+      <c r="F164" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="7"/>
+      <c r="C165" s="96"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="86"/>
+      <c r="F165" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="94"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="94"/>
+    </row>
+    <row r="167" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="5"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="C167" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D167" s="30"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="11"/>
+    </row>
+    <row r="168" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="5"/>
-      <c r="D169" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E169" s="21">
-        <v>4</v>
-      </c>
-      <c r="F169" s="37" t="s">
-        <v>107</v>
+      <c r="B169" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E169" s="115">
+        <v>90</v>
+      </c>
+      <c r="F169" s="103" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="D170" s="22"/>
-      <c r="F170" s="35" t="s">
-        <v>108</v>
+      <c r="E170" s="87"/>
+      <c r="F170" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="D171" s="22"/>
-      <c r="F171" s="35" t="s">
-        <v>112</v>
+      <c r="E171" s="87"/>
+      <c r="F171" s="102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
-      <c r="D172" s="22"/>
-      <c r="F172" s="35" t="s">
-        <v>37</v>
+      <c r="D172" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E172" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="36" t="s">
-        <v>101</v>
+      <c r="D173" s="22"/>
+      <c r="E173" s="87"/>
+      <c r="F173" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="D174" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E174" s="21"/>
-      <c r="F174" s="27" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="E174" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="D175" s="22"/>
+      <c r="E175" s="87"/>
       <c r="F175" s="6" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="29" t="s">
-        <v>98</v>
+      <c r="D176" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E176" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
-      <c r="D177" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E177" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F177" s="27" t="s">
-        <v>103</v>
+      <c r="D177" s="22"/>
+      <c r="E177" s="87"/>
+      <c r="F177" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
-      <c r="D178" s="22"/>
-      <c r="F178" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="7"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D178" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E178" s="82">
+        <v>0</v>
+      </c>
+      <c r="F178" s="100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="87"/>
+      <c r="F179" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="87"/>
+      <c r="F180" s="102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="D181" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E181" s="82">
+        <v>-9</v>
+      </c>
+      <c r="F181" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B182" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E182" s="17">
-        <v>90</v>
-      </c>
-      <c r="F182" s="34" t="s">
-        <v>75</v>
+      <c r="B182" s="5"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="87"/>
+      <c r="F182" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
-      <c r="D183" s="22"/>
-      <c r="F183" s="35" t="s">
-        <v>100</v>
+      <c r="D183" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E183" s="82">
+        <v>3.6</v>
+      </c>
+      <c r="F183" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="D184" s="22"/>
-      <c r="F184" s="35" t="s">
-        <v>37</v>
+      <c r="E184" s="87"/>
+      <c r="F184" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
-      <c r="D185" s="23"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="36" t="s">
-        <v>101</v>
+      <c r="D185" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E185" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="F185" s="100" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
-      <c r="D186" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E186" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F186" s="27" t="s">
-        <v>103</v>
+      <c r="D186" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E186" s="87"/>
+      <c r="F186" s="101" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="D187" s="22"/>
-      <c r="F187" s="6" t="s">
-        <v>98</v>
+      <c r="E187" s="87"/>
+      <c r="F187" s="101" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="29" t="s">
-        <v>37</v>
+      <c r="E188" s="83"/>
+      <c r="F188" s="102" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="D189" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F189" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E189" s="82">
+        <v>4</v>
+      </c>
+      <c r="F189" s="100" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
       <c r="D190" s="22"/>
-      <c r="F190" s="6" t="s">
-        <v>98</v>
+      <c r="E190" s="87"/>
+      <c r="F190" s="101" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
-      <c r="D191" s="23"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="29" t="s">
-        <v>37</v>
+      <c r="D191" s="22"/>
+      <c r="E191" s="87"/>
+      <c r="F191" s="101" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
-      <c r="D192" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E192" s="21"/>
-      <c r="F192" s="27" t="s">
-        <v>103</v>
+      <c r="D192" s="22"/>
+      <c r="E192" s="87"/>
+      <c r="F192" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
-      <c r="D193" s="22"/>
-      <c r="F193" s="6" t="s">
-        <v>37</v>
+      <c r="D193" s="23"/>
+      <c r="E193" s="83"/>
+      <c r="F193" s="102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
-      <c r="D194" s="22"/>
-      <c r="F194" s="6" t="s">
-        <v>98</v>
+      <c r="D194" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E194" s="82"/>
+      <c r="F194" s="26" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
-      <c r="D195" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E195" s="21">
-        <v>0</v>
-      </c>
-      <c r="F195" s="37" t="s">
-        <v>75</v>
+      <c r="D195" s="22"/>
+      <c r="E195" s="87"/>
+      <c r="F195" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
-      <c r="D196" s="22"/>
-      <c r="F196" s="35" t="s">
+      <c r="D196" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="5"/>
-      <c r="D197" s="22"/>
-      <c r="F197" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="5"/>
-      <c r="D198" s="23"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="36" t="s">
-        <v>101</v>
-      </c>
+      <c r="E196" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="7"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="122"/>
+      <c r="F197" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E198"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="5"/>
-      <c r="D199" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E199" s="21">
-        <v>-9</v>
-      </c>
-      <c r="F199" s="27" t="s">
-        <v>103</v>
+      <c r="B199" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E199" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
+      <c r="C200" s="94"/>
       <c r="D200" s="22"/>
+      <c r="E200" s="91"/>
       <c r="F200" s="6" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="29" t="s">
-        <v>98</v>
+      <c r="D201" s="22"/>
+      <c r="E201" s="85"/>
+      <c r="F201" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="D202" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E202" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="F202" s="27" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="E202" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="D203" s="22"/>
+      <c r="E203" s="91"/>
       <c r="F203" s="6" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
       <c r="D204" s="23"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="29" t="s">
-        <v>98</v>
+      <c r="E204" s="85"/>
+      <c r="F204" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="D205" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E205" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F205" s="37" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="E205" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F205" s="26" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
-      <c r="D206" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F206" s="35" t="s">
-        <v>108</v>
+      <c r="D206" s="22"/>
+      <c r="E206" s="85"/>
+      <c r="F206" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
-      <c r="D207" s="22"/>
-      <c r="F207" s="35" t="s">
-        <v>109</v>
+      <c r="D207" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E207" s="84">
+        <v>0</v>
+      </c>
+      <c r="F207" s="97" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
-      <c r="D208" s="23"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="36" t="s">
-        <v>37</v>
+      <c r="D208" s="22"/>
+      <c r="E208" s="91"/>
+      <c r="F208" s="98" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
-      <c r="D209" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E209" s="21">
-        <v>4</v>
-      </c>
-      <c r="F209" s="37" t="s">
-        <v>107</v>
+      <c r="D209" s="23"/>
+      <c r="E209" s="85"/>
+      <c r="F209" s="99" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
-      <c r="D210" s="22"/>
-      <c r="F210" s="35" t="s">
-        <v>108</v>
+      <c r="D210" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E210" s="84">
+        <v>-9</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="D211" s="22"/>
-      <c r="F211" s="35" t="s">
-        <v>112</v>
+      <c r="E211" s="91"/>
+      <c r="F211" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
-      <c r="D212" s="22"/>
-      <c r="F212" s="35" t="s">
-        <v>37</v>
+      <c r="D212" s="23"/>
+      <c r="E212" s="85"/>
+      <c r="F212" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
-      <c r="D213" s="23"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="36" t="s">
-        <v>101</v>
+      <c r="D213" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E213" s="84">
+        <v>3.6</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
-      <c r="D214" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E214" s="21"/>
-      <c r="F214" s="27" t="s">
-        <v>103</v>
+      <c r="D214" s="22"/>
+      <c r="E214" s="91"/>
+      <c r="F214" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
-      <c r="D215" s="22"/>
-      <c r="F215" s="6" t="s">
-        <v>37</v>
+      <c r="D215" s="23"/>
+      <c r="E215" s="85"/>
+      <c r="F215" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
-      <c r="D216" s="23"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="29" t="s">
-        <v>98</v>
+      <c r="D216" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E216" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F216" s="100" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
-      <c r="D217" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E217" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F217" s="27" t="s">
-        <v>103</v>
+      <c r="D217" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E217" s="91"/>
+      <c r="F217" s="101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="D218" s="22"/>
-      <c r="F218" s="6" t="s">
+      <c r="E218" s="85"/>
+      <c r="F218" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="D219" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E219" s="84">
+        <v>4</v>
+      </c>
+      <c r="F219" s="100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="91"/>
+      <c r="F220" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="85"/>
+      <c r="F221" s="102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="D222" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E222" s="84"/>
+      <c r="F222" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="85"/>
+      <c r="F223" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="D224" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E224" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F224" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="91"/>
+      <c r="F225" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="7"/>
+      <c r="C226" s="96"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="86"/>
+      <c r="F226" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="228" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D228" s="30"/>
+      <c r="E228" s="31"/>
+      <c r="F228" s="11"/>
+    </row>
+    <row r="229" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D230" s="30"/>
+      <c r="E230" s="31"/>
+      <c r="F230" s="11"/>
+    </row>
+    <row r="232" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C233" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" s="108" t="s">
+        <v>336</v>
+      </c>
+      <c r="E233" s="109"/>
+      <c r="F233" s="105" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="5"/>
+      <c r="C234" s="94"/>
+      <c r="D234" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E234" s="115">
+        <v>90</v>
+      </c>
+      <c r="F234" s="103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="5"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="87"/>
+      <c r="F235" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="5"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="87"/>
+      <c r="F236" s="104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="5"/>
+      <c r="D237" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E237" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="87"/>
+      <c r="F238" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="5"/>
+      <c r="D239" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="219" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="7"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="30"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="9" t="s">
-        <v>98</v>
+      <c r="E239" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F239" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="87"/>
+      <c r="F240" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="5"/>
+      <c r="D241" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E241" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="F241" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242" s="5"/>
+      <c r="D242" s="22"/>
+      <c r="E242" s="87"/>
+      <c r="F242" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+      <c r="D243" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E243" s="82">
+        <v>0</v>
+      </c>
+      <c r="F243" s="100" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="5"/>
+      <c r="D244" s="22"/>
+      <c r="E244" s="87"/>
+      <c r="F244" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="5"/>
+      <c r="D245" s="22"/>
+      <c r="E245" s="87"/>
+      <c r="F245" s="104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="5"/>
+      <c r="D246" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E246" s="82">
+        <v>-9</v>
+      </c>
+      <c r="F246" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="5"/>
+      <c r="D247" s="22"/>
+      <c r="E247" s="87"/>
+      <c r="F247" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="5"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="83"/>
+      <c r="F248" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="5"/>
+      <c r="D249" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E249" s="82">
+        <v>3.6</v>
+      </c>
+      <c r="F249" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="5"/>
+      <c r="D250" s="22"/>
+      <c r="E250" s="87"/>
+      <c r="F250" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="5"/>
+      <c r="D251" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E251" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="F251" s="100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="5"/>
+      <c r="D252" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E252" s="87"/>
+      <c r="F252" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="5"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="87"/>
+      <c r="F253" s="107" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="5"/>
+      <c r="D254" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E254" s="82">
+        <v>4</v>
+      </c>
+      <c r="F254" s="100" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B255" s="5"/>
+      <c r="D255" s="22"/>
+      <c r="E255" s="87"/>
+      <c r="F255" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="5"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="83"/>
+      <c r="F256" s="102" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257" s="5"/>
+      <c r="D257" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E257" s="82"/>
+      <c r="F257" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258" s="5"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="87"/>
+      <c r="F258" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="5"/>
+      <c r="D259" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E259" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F259" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="7"/>
+      <c r="C260" s="96"/>
+      <c r="D260" s="29"/>
+      <c r="E260" s="122"/>
+      <c r="F260" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="16"/>
+      <c r="E261"/>
+    </row>
+    <row r="262" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C262" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D262" s="30"/>
+      <c r="E262" s="31"/>
+      <c r="F262" s="11"/>
+    </row>
+    <row r="263" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="264" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C264" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D264" s="30"/>
+      <c r="E264" s="31"/>
+      <c r="F264" s="11"/>
+    </row>
+    <row r="265" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="266" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C266" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D266" s="30"/>
+      <c r="E266" s="31"/>
+      <c r="F266" s="11"/>
+    </row>
+    <row r="267" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E268" s="93">
+        <v>90</v>
+      </c>
+      <c r="F268" s="103" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="5"/>
+      <c r="D269" s="22"/>
+      <c r="E269" s="91"/>
+      <c r="F269" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B270" s="5"/>
+      <c r="D270" s="22"/>
+      <c r="E270" s="85"/>
+      <c r="F270" s="102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B271" s="5"/>
+      <c r="D271" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E271" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F271" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B272" s="5"/>
+      <c r="D272" s="22"/>
+      <c r="E272" s="85"/>
+      <c r="F272" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B273" s="5"/>
+      <c r="D273" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E273" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F273" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B274" s="5"/>
+      <c r="D274" s="22"/>
+      <c r="E274" s="85"/>
+      <c r="F274" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B275" s="5"/>
+      <c r="D275" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E275" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F275" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="5"/>
+      <c r="D276" s="22"/>
+      <c r="E276" s="85"/>
+      <c r="F276" s="28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277" s="5"/>
+      <c r="D277" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E277" s="84">
+        <v>0</v>
+      </c>
+      <c r="F277" s="101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B278" s="5"/>
+      <c r="D278" s="22"/>
+      <c r="E278" s="91"/>
+      <c r="F278" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B279" s="5"/>
+      <c r="D279" s="22"/>
+      <c r="E279" s="85"/>
+      <c r="F279" s="102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B280" s="5"/>
+      <c r="D280" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E280" s="84">
+        <v>-9</v>
+      </c>
+      <c r="F280" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B281" s="5"/>
+      <c r="D281" s="22"/>
+      <c r="E281" s="85"/>
+      <c r="F281" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B282" s="5"/>
+      <c r="D282" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E282" s="84">
+        <v>3.6</v>
+      </c>
+      <c r="F282" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B283" s="5"/>
+      <c r="D283" s="22"/>
+      <c r="E283" s="85"/>
+      <c r="F283" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B284" s="5"/>
+      <c r="D284" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E284" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="F284" s="100" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B285" s="5"/>
+      <c r="D285" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E285" s="82">
+        <v>4</v>
+      </c>
+      <c r="F285" s="100" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B286" s="5"/>
+      <c r="D286" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E286" s="21"/>
+      <c r="F286" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B287" s="5"/>
+      <c r="D287" s="22"/>
+      <c r="F287" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B288" s="5"/>
+      <c r="D288" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E288" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F288" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="7"/>
+      <c r="C289" s="96"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="86"/>
+      <c r="F289" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="16"/>
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B291" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E291" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="F291" s="103" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B292" s="5"/>
+      <c r="D292" s="22"/>
+      <c r="E292" s="91"/>
+      <c r="F292" s="101" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B293" s="5"/>
+      <c r="D293" s="22"/>
+      <c r="E293" s="85"/>
+      <c r="F293" s="102" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B294" s="5"/>
+      <c r="D294" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="E294" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F294" s="101" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B295" s="5"/>
+      <c r="D295" s="22"/>
+      <c r="E295" s="91"/>
+      <c r="F295" s="101" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="7"/>
+      <c r="C296" s="111"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="86"/>
+      <c r="F296" s="110" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B298" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E298" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="F298" s="103" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B299" s="5"/>
+      <c r="D299" s="22"/>
+      <c r="E299" s="85"/>
+      <c r="F299" s="102" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B300" s="5"/>
+      <c r="D300" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E300" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F300" s="101" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="7"/>
+      <c r="C301" s="8"/>
+      <c r="D301" s="29"/>
+      <c r="E301" s="86"/>
+      <c r="F301" s="110" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B303" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E303" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="F303" s="103" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B304" s="5"/>
+      <c r="D304" s="22"/>
+      <c r="E304" s="85"/>
+      <c r="F304" s="102" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B305" s="5"/>
+      <c r="D305" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E305" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="F305" s="101" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="7"/>
+      <c r="C306" s="8"/>
+      <c r="D306" s="29"/>
+      <c r="E306" s="86"/>
+      <c r="F306" s="110" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="308" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C308" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D308" s="30"/>
+      <c r="E308" s="31"/>
+      <c r="F308" s="11"/>
+    </row>
+    <row r="309" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C310" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D310" s="30"/>
+      <c r="E310" s="31"/>
+      <c r="F310" s="11"/>
+    </row>
+    <row r="311" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E311"/>
+    </row>
+    <row r="312" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C312" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D312" s="30"/>
+      <c r="E312" s="31"/>
+      <c r="F312" s="11"/>
+    </row>
+    <row r="313" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="314" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C314" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D314" s="30"/>
+      <c r="E314" s="31"/>
+      <c r="F314" s="11"/>
+    </row>
+    <row r="315" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B316" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D316" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E316" s="93">
+        <v>90</v>
+      </c>
+      <c r="F316" s="103" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B317" s="5"/>
+      <c r="D317" s="22"/>
+      <c r="E317" s="91"/>
+      <c r="F317" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B318" s="5"/>
+      <c r="D318" s="22"/>
+      <c r="E318" s="85"/>
+      <c r="F318" s="102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B319" s="5"/>
+      <c r="D319" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E319" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F319" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B320" s="5"/>
+      <c r="D320" s="22"/>
+      <c r="E320" s="85"/>
+      <c r="F320" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B321" s="5"/>
+      <c r="D321" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E321" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F321" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B322" s="5"/>
+      <c r="D322" s="22"/>
+      <c r="E322" s="85"/>
+      <c r="F322" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B323" s="5"/>
+      <c r="D323" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E323" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F323" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B324" s="5"/>
+      <c r="D324" s="22"/>
+      <c r="E324" s="85"/>
+      <c r="F324" s="28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B325" s="5"/>
+      <c r="D325" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E325" s="84">
+        <v>0</v>
+      </c>
+      <c r="F325" s="101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B326" s="5"/>
+      <c r="D326" s="22"/>
+      <c r="E326" s="91"/>
+      <c r="F326" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B327" s="5"/>
+      <c r="D327" s="22"/>
+      <c r="E327" s="85"/>
+      <c r="F327" s="102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B328" s="5"/>
+      <c r="D328" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E328" s="84">
+        <v>-9</v>
+      </c>
+      <c r="F328" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B329" s="5"/>
+      <c r="D329" s="22"/>
+      <c r="E329" s="85"/>
+      <c r="F329" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B330" s="5"/>
+      <c r="D330" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E330" s="84">
+        <v>3.6</v>
+      </c>
+      <c r="F330" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B331" s="5"/>
+      <c r="D331" s="22"/>
+      <c r="E331" s="85"/>
+      <c r="F331" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B332" s="5"/>
+      <c r="D332" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E332" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="F332" s="100" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B333" s="5"/>
+      <c r="D333" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E333" s="82">
+        <v>4</v>
+      </c>
+      <c r="F333" s="100" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B334" s="5"/>
+      <c r="D334" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E334" s="21"/>
+      <c r="F334" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B335" s="5"/>
+      <c r="D335" s="22"/>
+      <c r="F335" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B336" s="5"/>
+      <c r="D336" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E336" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F336" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="337" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="7"/>
+      <c r="C337" s="96"/>
+      <c r="D337" s="8"/>
+      <c r="E337" s="86"/>
+      <c r="F337" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="339" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C339" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D339" s="30"/>
+      <c r="E339" s="31"/>
+      <c r="F339" s="11"/>
+    </row>
+    <row r="340" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B341" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E341" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="F341" s="103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B342" s="5"/>
+      <c r="C342" s="94"/>
+      <c r="D342" s="22"/>
+      <c r="E342" s="91"/>
+      <c r="F342" s="101" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B343" s="5"/>
+      <c r="D343" s="22"/>
+      <c r="E343" s="85"/>
+      <c r="F343" s="102" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="5"/>
+      <c r="D344" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E344" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F344" s="100" t="s">
+        <v>372</v>
+      </c>
+      <c r="G344" s="95"/>
+      <c r="H344" s="95"/>
+      <c r="I344" s="95"/>
+      <c r="J344" s="112" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="345" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="5"/>
+      <c r="D345" s="22"/>
+      <c r="E345" s="91"/>
+      <c r="F345" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G345" s="95"/>
+      <c r="H345" s="95"/>
+      <c r="I345" s="95"/>
+      <c r="J345" s="113"/>
+    </row>
+    <row r="346" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="7"/>
+      <c r="C346" s="8"/>
+      <c r="D346" s="29"/>
+      <c r="E346" s="86"/>
+      <c r="F346" s="114" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="347" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E347"/>
+    </row>
+    <row r="348" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C348" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D348" s="30"/>
+      <c r="E348" s="31"/>
+      <c r="F348" s="11"/>
+    </row>
+    <row r="349" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="350" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C350" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D350" s="30"/>
+      <c r="E350" s="31"/>
+      <c r="F350" s="11"/>
+    </row>
+    <row r="351" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="352" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C352" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D352" s="30"/>
+      <c r="E352" s="31"/>
+      <c r="F352" s="11"/>
+    </row>
+    <row r="353" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B354" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D354" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E354" s="93">
+        <v>90</v>
+      </c>
+      <c r="F354" s="103" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B355" s="5"/>
+      <c r="D355" s="22"/>
+      <c r="E355" s="91"/>
+      <c r="F355" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B356" s="5"/>
+      <c r="D356" s="22"/>
+      <c r="E356" s="85"/>
+      <c r="F356" s="102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B357" s="5"/>
+      <c r="D357" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E357" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F357" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B358" s="5"/>
+      <c r="D358" s="22"/>
+      <c r="E358" s="85"/>
+      <c r="F358" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B359" s="5"/>
+      <c r="D359" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E359" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F359" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B360" s="5"/>
+      <c r="D360" s="22"/>
+      <c r="E360" s="85"/>
+      <c r="F360" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B361" s="5"/>
+      <c r="D361" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E361" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="F361" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B362" s="5"/>
+      <c r="D362" s="22"/>
+      <c r="E362" s="85"/>
+      <c r="F362" s="28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B363" s="5"/>
+      <c r="D363" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E363" s="84">
+        <v>0</v>
+      </c>
+      <c r="F363" s="101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B364" s="5"/>
+      <c r="D364" s="22"/>
+      <c r="E364" s="91"/>
+      <c r="F364" s="101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B365" s="5"/>
+      <c r="D365" s="22"/>
+      <c r="E365" s="85"/>
+      <c r="F365" s="102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B366" s="5"/>
+      <c r="D366" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E366" s="84">
+        <v>-9</v>
+      </c>
+      <c r="F366" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B367" s="5"/>
+      <c r="D367" s="22"/>
+      <c r="E367" s="85"/>
+      <c r="F367" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B368" s="5"/>
+      <c r="D368" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E368" s="84">
+        <v>3.6</v>
+      </c>
+      <c r="F368" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B369" s="5"/>
+      <c r="D369" s="22"/>
+      <c r="E369" s="85"/>
+      <c r="F369" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B370" s="5"/>
+      <c r="D370" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E370" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="F370" s="100" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B371" s="5"/>
+      <c r="D371" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E371" s="82">
+        <v>4</v>
+      </c>
+      <c r="F371" s="100" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B372" s="5"/>
+      <c r="D372" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E372" s="21"/>
+      <c r="F372" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B373" s="5"/>
+      <c r="D373" s="22"/>
+      <c r="F373" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B374" s="5"/>
+      <c r="D374" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E374" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F374" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="7"/>
+      <c r="C375" s="96"/>
+      <c r="D375" s="8"/>
+      <c r="E375" s="86"/>
+      <c r="F375" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="377" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C377" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D377" s="30"/>
+      <c r="E377" s="31"/>
+      <c r="F377" s="11"/>
+    </row>
+    <row r="378" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="379" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C379" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D379" s="30"/>
+      <c r="E379" s="31"/>
+      <c r="F379" s="11"/>
+    </row>
+    <row r="380" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="381" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D381" s="30"/>
+      <c r="E381" s="31"/>
+      <c r="F381" s="11"/>
+    </row>
+    <row r="382" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="383" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C383" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D383" s="30"/>
+      <c r="E383" s="31"/>
+      <c r="F383" s="11"/>
+    </row>
+    <row r="386" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B386" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="E303:E304"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="E298:E299"/>
+    <mergeCell ref="E294:E296"/>
+    <mergeCell ref="E291:E293"/>
+    <mergeCell ref="E325:E327"/>
+    <mergeCell ref="E323:E324"/>
+    <mergeCell ref="E321:E322"/>
+    <mergeCell ref="E319:E320"/>
+    <mergeCell ref="E316:E318"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="E354:E356"/>
+    <mergeCell ref="E344:E346"/>
+    <mergeCell ref="E341:E343"/>
+    <mergeCell ref="E336:E337"/>
+    <mergeCell ref="E330:E331"/>
+    <mergeCell ref="E328:E329"/>
+    <mergeCell ref="E288:E289"/>
+    <mergeCell ref="E374:E375"/>
+    <mergeCell ref="E368:E369"/>
+    <mergeCell ref="E366:E367"/>
+    <mergeCell ref="E363:E365"/>
+    <mergeCell ref="E361:E362"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="E357:E358"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="E268:E270"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="E216:E218"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="E37:E40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
